--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="165">
   <si>
     <t>主键</t>
   </si>
@@ -325,6 +325,123 @@
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v1</t>
+  </si>
+  <si>
+    <t>初级抽卡</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_draw_card_v1</t>
+  </si>
+  <si>
+    <t>card01</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
+  </si>
+  <si>
+    <t>var_type
+draw_count</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+3</t>
+  </si>
+  <si>
+    <t>var_type
+wood_cost</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+5</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v2</t>
+  </si>
+  <si>
+    <t>中级抽卡</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_draw_card_v2</t>
+  </si>
+  <si>
+    <t>card02</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+10</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v3</t>
+  </si>
+  <si>
+    <t>高级抽卡</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_draw_card_v3</t>
+  </si>
+  <si>
+    <t>card03</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+20</t>
+  </si>
+  <si>
+    <t>courier_auto_gold</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_auto_gold</t>
+  </si>
+  <si>
+    <t>auto_gold</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+  </si>
+  <si>
+    <t>courier_fire_chess</t>
+  </si>
+  <si>
+    <t>集火</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_fire_chess</t>
+  </si>
+  <si>
+    <t>fire_chess</t>
+  </si>
+  <si>
+    <t>courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>售卖棋子</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>recovery_chess</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
+  </si>
+  <si>
+    <t>courier_upgrade_chess</t>
+  </si>
+  <si>
+    <t>棋子升阶</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_upgrade_chess</t>
+  </si>
+  <si>
+    <t>upgrade_chess</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -416,15 +533,61 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -452,7 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,10 +629,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,6 +652,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -499,53 +670,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,7 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,14 +686,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,7 +700,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +736,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +778,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,25 +808,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,79 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,25 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,17 +909,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,44 +948,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,16 +967,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,22 +1491,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.5833333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="28.475" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.16666666666667" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.9166666666667" style="9" customWidth="1"/>
+    <col min="6" max="6" width="48.4166666666667" style="9" customWidth="1"/>
     <col min="7" max="7" width="17.0833333333333" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.3333333333333" style="9" customWidth="1"/>
     <col min="9" max="9" width="12.4166666666667" style="9" customWidth="1"/>
@@ -1676,7 +1793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="28.5" spans="1:35">
+    <row r="3" s="3" customFormat="1" ht="28" spans="1:35">
       <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
@@ -1744,7 +1861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:35">
+    <row r="4" ht="28" spans="1:35">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -1825,7 +1942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:35">
+    <row r="5" ht="28" spans="1:35">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -1902,7 +2019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:35">
+    <row r="6" ht="28" spans="1:35">
       <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
@@ -1979,7 +2096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:35">
+    <row r="7" ht="28" spans="1:35">
       <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
@@ -2056,7 +2173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:35">
+    <row r="8" ht="28" spans="1:35">
       <c r="A8" s="8" t="s">
         <v>96</v>
       </c>
@@ -2137,27 +2254,497 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
+    <row r="9" s="3" customFormat="1" ht="28" spans="1:35">
+      <c r="A9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="28" spans="1:35">
+      <c r="A10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="28" spans="1:35">
+      <c r="A11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+    </row>
+    <row r="12" ht="28" spans="1:35">
+      <c r="A12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:35">
+      <c r="A13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:35">
+      <c r="A14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="8"/>
+      <c r="S14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:35">
+      <c r="A15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="8"/>
+      <c r="S15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,7 +2762,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2199,10 +2786,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:42">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2327,10 +2914,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:42">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -2455,141 +3042,141 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="5" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="165">
   <si>
     <t>主键</t>
   </si>
@@ -224,16 +224,16 @@
     <t>AbilitySpecial</t>
   </si>
   <si>
-    <t>ability1_courier_base</t>
-  </si>
-  <si>
-    <t>种怪</t>
+    <t>ability3_courier_base</t>
+  </si>
+  <si>
+    <t>种树</t>
   </si>
   <si>
     <t>ability_lua</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\ability1_courier_base</t>
+    <t>npc\abilities\courier\courier_base\ability3_courier_base</t>
   </si>
   <si>
     <t>kunkka_torrent</t>
@@ -273,55 +273,16 @@
 stun_duration</t>
   </si>
   <si>
-    <t>ability2_courier_base</t>
-  </si>
-  <si>
-    <t>采集</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_base\ability2_courier_base</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+    <t>ability6_courier_base</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\ability6_courier_base</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_BASIC</t>
-  </si>
-  <si>
-    <t>ability3_courier_base</t>
-  </si>
-  <si>
-    <t>种树</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_base\ability3_courier_base</t>
-  </si>
-  <si>
-    <t>ability4_courier_base</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_base\ability4_courier_base</t>
-  </si>
-  <si>
-    <t>ability5_courier_base</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_base\ability5_courier_base</t>
-  </si>
-  <si>
-    <t>ability6_courier_base</t>
-  </si>
-  <si>
-    <t>标记</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_base\ability6_courier_base</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_HERO</t>
@@ -442,6 +403,45 @@
   </si>
   <si>
     <t>upgrade_chess</t>
+  </si>
+  <si>
+    <t>courier_challenge_gold</t>
+  </si>
+  <si>
+    <t>金币挑战</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_challenge_gold</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+  </si>
+  <si>
+    <t>courier_challenge_wood</t>
+  </si>
+  <si>
+    <t>木材挑战</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_challenge_wood</t>
+  </si>
+  <si>
+    <t>courier_challenge_equip</t>
+  </si>
+  <si>
+    <t>装备挑战</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_challenge_equip</t>
+  </si>
+  <si>
+    <t>courier_challenge_artifact</t>
+  </si>
+  <si>
+    <t>神器挑战</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_base\courier_challenge_artifact</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -548,15 +548,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,6 +566,42 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,28 +620,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -614,17 +635,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,6 +654,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,29 +690,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -700,13 +700,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,25 +754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +790,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,13 +826,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,79 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,21 +891,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -933,37 +918,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,9 +959,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1494,11 +1494,11 @@
   <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1793,7 +1793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="3" ht="28" spans="1:35">
       <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
@@ -1818,15 +1818,24 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T3" s="3">
         <v>1</v>
       </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
       <c r="W3" s="3">
         <v>1500</v>
       </c>
@@ -1862,16 +1871,16 @@
       </c>
     </row>
     <row r="4" ht="28" spans="1:35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1889,17 +1898,17 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="8"/>
       <c r="S4" s="3" t="s">
         <v>74</v>
       </c>
@@ -1942,49 +1951,40 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:35">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="3" customFormat="1" ht="28" spans="1:35">
+      <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+        <v>91</v>
+      </c>
       <c r="S5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T5" s="3">
         <v>1</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
       <c r="W5" s="3">
         <v>1500</v>
       </c>
@@ -1995,73 +1995,56 @@
         <v>0</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
     </row>
-    <row r="6" ht="28" spans="1:35">
+    <row r="6" s="3" customFormat="1" ht="28" spans="1:35">
       <c r="A6" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+        <v>91</v>
+      </c>
       <c r="S6" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T6" s="3">
         <v>1</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
       <c r="W6" s="3">
         <v>1500</v>
       </c>
@@ -2072,73 +2055,56 @@
         <v>0</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
     </row>
-    <row r="7" ht="28" spans="1:35">
+    <row r="7" s="3" customFormat="1" ht="28" spans="1:35">
       <c r="A7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="8"/>
+        <v>91</v>
+      </c>
       <c r="S7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T7" s="3">
         <v>1</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
       <c r="W7" s="3">
         <v>1500</v>
       </c>
@@ -2149,51 +2115,43 @@
         <v>0</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI7" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
     </row>
     <row r="8" ht="28" spans="1:35">
-      <c r="A8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>97</v>
+      <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -2201,17 +2159,13 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
         <v>74</v>
       </c>
@@ -2254,40 +2208,49 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="9" ht="28" spans="1:35">
       <c r="A9" s="8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T9" s="3">
         <v>1</v>
       </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
       <c r="W9" s="3">
         <v>1500</v>
       </c>
@@ -2298,56 +2261,73 @@
         <v>0</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="10" ht="28" spans="1:35">
       <c r="A10" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="8"/>
       <c r="S10" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T10" s="3">
         <v>1</v>
       </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="3">
         <v>1500</v>
       </c>
@@ -2358,56 +2338,77 @@
         <v>0</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="11" ht="28" spans="1:35">
       <c r="A11" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="8"/>
       <c r="S11" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T11" s="3">
         <v>1</v>
       </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="3">
         <v>1500</v>
       </c>
@@ -2418,43 +2419,51 @@
         <v>0</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" ht="28" spans="1:35">
-      <c r="A12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>120</v>
+      <c r="A12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
@@ -2462,13 +2471,13 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="8"/>
       <c r="S12" s="3" t="s">
         <v>74</v>
       </c>
@@ -2481,57 +2490,49 @@
         <v>1500</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
     </row>
     <row r="13" ht="28" spans="1:35">
       <c r="A13" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
@@ -2539,7 +2540,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2558,134 +2559,109 @@
         <v>1500</v>
       </c>
       <c r="X13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y13" s="3">
         <v>0</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
     </row>
-    <row r="14" ht="28" spans="1:35">
+    <row r="14" s="3" customFormat="1" ht="28" spans="1:35">
       <c r="A14" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="8"/>
+        <v>127</v>
+      </c>
       <c r="S14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
       <c r="W14" s="3">
         <v>1500</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI14" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
     </row>
     <row r="15" ht="28" spans="1:35">
       <c r="A15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>134</v>
+      <c r="B15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -2693,17 +2669,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="3"/>
       <c r="S15" s="3" t="s">
         <v>74</v>
       </c>
@@ -2716,35 +2688,27 @@
         <v>1500</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC15" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -533,10 +533,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -544,6 +544,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,30 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,52 +584,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -667,11 +606,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,9 +661,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +730,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,19 +796,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +850,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,109 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,11 +894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,23 +927,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,26 +948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -991,16 +962,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1498,7 +1498,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2466,7 +2466,7 @@
         <v>72</v>
       </c>
       <c r="H12" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2535,7 +2535,7 @@
         <v>72</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2604,7 +2604,7 @@
         <v>72</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>127</v>
@@ -2664,7 +2664,7 @@
         <v>72</v>
       </c>
       <c r="H15" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AQ$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AR$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="167">
   <si>
     <t>主键</t>
   </si>
@@ -38,6 +38,9 @@
     <t>技能最大等级</t>
   </si>
   <si>
+    <t>是否技能列表隐藏</t>
+  </si>
+  <si>
     <t>所需等级</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
   </si>
   <si>
     <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>CustomHidden</t>
   </si>
   <si>
     <t>RequiredLevel</t>
@@ -533,10 +539,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -548,21 +554,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,31 +575,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,14 +599,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -638,15 +613,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -661,6 +628,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -669,10 +661,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,6 +689,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -700,7 +706,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +742,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,13 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +844,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,127 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,6 +934,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -966,15 +981,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -997,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,133 +1015,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1491,14 +1497,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12:H15"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1509,29 +1515,30 @@
     <col min="6" max="6" width="48.4166666666667" style="9" customWidth="1"/>
     <col min="7" max="7" width="17.0833333333333" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.4166666666667" style="9" customWidth="1"/>
-    <col min="10" max="11" width="20.9166666666667" style="9" customWidth="1"/>
-    <col min="12" max="15" width="13.1666666666667" style="10" customWidth="1"/>
-    <col min="16" max="17" width="20.5" style="10" customWidth="1"/>
-    <col min="18" max="19" width="17.75" style="10" customWidth="1"/>
-    <col min="20" max="20" width="17.3333333333333" style="10" customWidth="1"/>
-    <col min="21" max="21" width="14.3333333333333" style="10" customWidth="1"/>
-    <col min="22" max="22" width="13.8333333333333" style="10" customWidth="1"/>
-    <col min="23" max="23" width="12.4166666666667" style="10" customWidth="1"/>
-    <col min="24" max="24" width="15.75" style="10" customWidth="1"/>
-    <col min="25" max="27" width="11.9166666666667" style="10" customWidth="1"/>
-    <col min="28" max="28" width="17.6666666666667" style="10" customWidth="1"/>
-    <col min="29" max="29" width="13.6666666666667" style="10" customWidth="1"/>
-    <col min="30" max="30" width="17" style="10" customWidth="1"/>
-    <col min="31" max="31" width="13.6666666666667" style="10" customWidth="1"/>
-    <col min="32" max="32" width="12.6666666666667" style="10" customWidth="1"/>
-    <col min="33" max="33" width="11.8333333333333" style="10" customWidth="1"/>
-    <col min="34" max="34" width="12.5" style="10" customWidth="1"/>
-    <col min="35" max="35" width="11.8333333333333" style="10" customWidth="1"/>
-    <col min="36" max="43" width="9.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.1583333333333" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.4166666666667" style="9" customWidth="1"/>
+    <col min="11" max="12" width="20.9166666666667" style="9" customWidth="1"/>
+    <col min="13" max="16" width="13.1666666666667" style="10" customWidth="1"/>
+    <col min="17" max="18" width="20.5" style="10" customWidth="1"/>
+    <col min="19" max="20" width="17.75" style="10" customWidth="1"/>
+    <col min="21" max="21" width="17.3333333333333" style="10" customWidth="1"/>
+    <col min="22" max="22" width="14.3333333333333" style="10" customWidth="1"/>
+    <col min="23" max="23" width="13.8333333333333" style="10" customWidth="1"/>
+    <col min="24" max="24" width="12.4166666666667" style="10" customWidth="1"/>
+    <col min="25" max="25" width="15.75" style="10" customWidth="1"/>
+    <col min="26" max="28" width="11.9166666666667" style="10" customWidth="1"/>
+    <col min="29" max="29" width="17.6666666666667" style="10" customWidth="1"/>
+    <col min="30" max="30" width="13.6666666666667" style="10" customWidth="1"/>
+    <col min="31" max="31" width="17" style="10" customWidth="1"/>
+    <col min="32" max="32" width="13.6666666666667" style="10" customWidth="1"/>
+    <col min="33" max="33" width="12.6666666666667" style="10" customWidth="1"/>
+    <col min="34" max="34" width="11.8333333333333" style="10" customWidth="1"/>
+    <col min="35" max="35" width="12.5" style="10" customWidth="1"/>
+    <col min="36" max="36" width="11.8333333333333" style="10" customWidth="1"/>
+    <col min="37" max="44" width="9.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
+    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:44">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1563,7 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1565,7 +1572,7 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -1583,22 +1590,22 @@
       <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="X1" s="4" t="s">
@@ -1661,1054 +1668,1083 @@
       <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
+    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:44">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:35">
+    <row r="3" ht="28" spans="1:36">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="3">
+      <c r="R3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="3">
+      <c r="W3" s="3"/>
+      <c r="X3" s="3">
         <v>1500</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
       </c>
       <c r="Y3" s="3">
         <v>0</v>
       </c>
-      <c r="AB3" s="11" t="s">
-        <v>75</v>
+      <c r="Z3" s="3">
+        <v>0</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:35">
+    <row r="4" ht="28" spans="1:36">
       <c r="A4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="K4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="8"/>
-      <c r="S4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="3">
+        <v>87</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="8"/>
+      <c r="T4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="3">
         <v>1</v>
       </c>
-      <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="3">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3">
         <v>1500</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
       </c>
-      <c r="AB4" s="11" t="s">
-        <v>75</v>
+      <c r="Z4" s="3">
+        <v>0</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="5" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A5" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="3">
+      <c r="I5" s="4"/>
+      <c r="M5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>1500</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
       </c>
       <c r="Y5" s="3">
         <v>0</v>
       </c>
-      <c r="AB5" s="11" t="s">
-        <v>92</v>
+      <c r="Z5" s="3">
+        <v>0</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF5" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
       <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="6" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A6" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="3">
+      <c r="I6" s="4"/>
+      <c r="M6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="3">
         <v>1</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>1500</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
       </c>
-      <c r="AB6" s="11" t="s">
-        <v>92</v>
+      <c r="Z6" s="3">
+        <v>0</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF6" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="7" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="3">
+      <c r="I7" s="4"/>
+      <c r="M7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" s="3">
         <v>1</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>1500</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
       </c>
       <c r="Y7" s="3">
         <v>0</v>
       </c>
-      <c r="AB7" s="11" t="s">
-        <v>92</v>
+      <c r="Z7" s="3">
+        <v>0</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD7" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF7" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
     </row>
-    <row r="8" ht="28" spans="1:35">
+    <row r="8" ht="28" spans="1:36">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="3"/>
-      <c r="L8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="S8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="R8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="3">
         <v>1</v>
       </c>
-      <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3">
+      <c r="W8" s="3"/>
+      <c r="X8" s="3">
         <v>1500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8" s="11" t="s">
-        <v>75</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:35">
+    <row r="9" ht="28" spans="1:36">
       <c r="A9" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="S9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="R9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="3">
         <v>1</v>
       </c>
-      <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="3">
+      <c r="W9" s="3"/>
+      <c r="X9" s="3">
         <v>1500</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="AB9" s="11" t="s">
-        <v>75</v>
+      <c r="Z9" s="3">
+        <v>0</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF9" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:35">
+    <row r="10" ht="28" spans="1:36">
       <c r="A10" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="8"/>
-      <c r="S10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="8"/>
+      <c r="T10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="3">
         <v>1</v>
       </c>
-      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3">
+      <c r="W10" s="3"/>
+      <c r="X10" s="3">
         <v>1500</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="AB10" s="11" t="s">
-        <v>75</v>
+      <c r="Z10" s="3">
+        <v>0</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF10" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:35">
+    <row r="11" ht="28" spans="1:36">
       <c r="A11" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="K11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="8"/>
-      <c r="S11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T11" s="3">
+        <v>87</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="8"/>
+      <c r="T11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="3">
         <v>1</v>
       </c>
-      <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="3">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3">
         <v>1500</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
       </c>
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>75</v>
+      <c r="Z11" s="3">
+        <v>0</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF11" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:35">
+    <row r="12" ht="28" spans="1:36">
       <c r="A12" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="4">
         <v>50</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="8"/>
-      <c r="S12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="3">
         <v>1</v>
       </c>
-      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="3">
+      <c r="W12" s="3"/>
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AB12" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="AC12" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF12" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
     </row>
-    <row r="13" ht="28" spans="1:35">
+    <row r="13" ht="28" spans="1:36">
       <c r="A13" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="4">
         <v>50</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="S13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="3">
+      <c r="R13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" s="3">
         <v>1</v>
       </c>
-      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="3">
+      <c r="W13" s="3"/>
+      <c r="X13" s="3">
         <v>1500</v>
       </c>
-      <c r="X13" s="3">
+      <c r="Y13" s="3">
         <v>20</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Z13" s="3">
         <v>0</v>
       </c>
-      <c r="AB13" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="AC13" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF13" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="28" spans="1:35">
+    <row r="14" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A14" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="4">
         <v>50</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="W14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
         <v>1500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>30</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="AC14" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF14" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
     </row>
-    <row r="15" ht="28" spans="1:35">
+    <row r="15" ht="28" spans="1:36">
       <c r="A15" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H15" s="4">
         <v>50</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="S15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="R15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" s="3">
         <v>1</v>
       </c>
-      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="3">
+      <c r="W15" s="3"/>
+      <c r="X15" s="3">
         <v>1500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>40</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="AC15" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF15" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,10 +2756,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP23"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2733,27 +2769,27 @@
     <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
     <col min="4" max="5" width="9.41666666666667" customWidth="1"/>
     <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="10" width="21.5833333333333" customWidth="1"/>
-    <col min="11" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="16" width="21.1666666666667" customWidth="1"/>
-    <col min="17" max="17" width="18.4166666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="17.9166666666667" customWidth="1"/>
-    <col min="20" max="20" width="18.9166666666667" customWidth="1"/>
-    <col min="21" max="21" width="14.3333333333333" customWidth="1"/>
-    <col min="22" max="22" width="15.3333333333333" customWidth="1"/>
-    <col min="23" max="23" width="15.0833333333333" customWidth="1"/>
-    <col min="24" max="26" width="14.9166666666667" customWidth="1"/>
-    <col min="27" max="42" width="12.0833333333333" customWidth="1"/>
+    <col min="7" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="11" width="21.5833333333333" customWidth="1"/>
+    <col min="12" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="17" width="21.1666666666667" customWidth="1"/>
+    <col min="18" max="18" width="18.4166666666667" customWidth="1"/>
+    <col min="19" max="19" width="11.6666666666667" customWidth="1"/>
+    <col min="20" max="20" width="17.9166666666667" customWidth="1"/>
+    <col min="21" max="21" width="18.9166666666667" customWidth="1"/>
+    <col min="22" max="22" width="14.3333333333333" customWidth="1"/>
+    <col min="23" max="23" width="15.3333333333333" customWidth="1"/>
+    <col min="24" max="24" width="15.0833333333333" customWidth="1"/>
+    <col min="25" max="27" width="14.9166666666667" customWidth="1"/>
+    <col min="28" max="43" width="12.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:42">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2770,7 +2806,7 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -2779,7 +2815,7 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -2797,22 +2833,22 @@
       <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -2875,403 +2911,421 @@
       <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:42">
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="L2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5"/>
     </row>
-    <row r="8" spans="9:14">
-      <c r="I8" s="5"/>
+    <row r="8" spans="10:15">
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
-    <row r="20" spans="2:22">
+    <row r="11" spans="8:8">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="20" spans="2:23">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3293,8 +3347,9 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:23">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3304,20 +3359,21 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:22">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3334,10 +3390,11 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:18">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3354,6 +3411,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -239,7 +239,7 @@
     <t>ability_lua</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\ability3_courier_base</t>
+    <t>npc\abilities\courier\ability3_courier_base</t>
   </si>
   <si>
     <t>kunkka_torrent</t>
@@ -285,7 +285,7 @@
     <t>标记</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\ability6_courier_base</t>
+    <t>npc\abilities\courier\ability6_courier_base</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -300,7 +300,7 @@
     <t>初级抽卡</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_draw_card_v1</t>
+    <t>npc\abilities\courier\courier_draw_card_v1</t>
   </si>
   <si>
     <t>card01</t>
@@ -331,7 +331,7 @@
     <t>中级抽卡</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_draw_card_v2</t>
+    <t>npc\abilities\courier\courier_draw_card_v2</t>
   </si>
   <si>
     <t>card02</t>
@@ -347,7 +347,7 @@
     <t>高级抽卡</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_draw_card_v3</t>
+    <t>npc\abilities\courier\courier_draw_card_v3</t>
   </si>
   <si>
     <t>card03</t>
@@ -363,7 +363,7 @@
     <t>获得金币</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_auto_gold</t>
+    <t>npc\abilities\courier\courier_auto_gold</t>
   </si>
   <si>
     <t>auto_gold</t>
@@ -378,7 +378,7 @@
     <t>集火</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_fire_chess</t>
+    <t>npc\abilities\courier\courier_fire_chess</t>
   </si>
   <si>
     <t>fire_chess</t>
@@ -390,7 +390,7 @@
     <t>售卖棋子</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_recovery_chess</t>
+    <t>npc\abilities\courier\courier_recovery_chess</t>
   </si>
   <si>
     <t>recovery_chess</t>
@@ -405,7 +405,7 @@
     <t>棋子升阶</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_upgrade_chess</t>
+    <t>npc\abilities\courier\courier_upgrade_chess</t>
   </si>
   <si>
     <t>upgrade_chess</t>
@@ -417,7 +417,7 @@
     <t>金币挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_challenge_gold</t>
+    <t>npc\abilities\courier\courier_challenge_gold</t>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
@@ -429,7 +429,7 @@
     <t>木材挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_challenge_wood</t>
+    <t>npc\abilities\courier\courier_challenge_wood</t>
   </si>
   <si>
     <t>courier_challenge_equip</t>
@@ -438,7 +438,7 @@
     <t>装备挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_challenge_equip</t>
+    <t>npc\abilities\courier\courier_challenge_equip</t>
   </si>
   <si>
     <t>courier_challenge_artifact</t>
@@ -447,7 +447,7 @@
     <t>神器挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_base\courier_challenge_artifact</t>
+    <t>npc\abilities\courier\courier_challenge_artifact</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1504,7 +1504,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="204">
   <si>
     <t>主键</t>
   </si>
@@ -230,25 +230,88 @@
     <t>AbilitySpecial</t>
   </si>
   <si>
-    <t>ability3_courier_base</t>
-  </si>
-  <si>
-    <t>种树</t>
+    <t>courier_draw_card_v1</t>
+  </si>
+  <si>
+    <t>初级抽卡</t>
   </si>
   <si>
     <t>ability_lua</t>
   </si>
   <si>
-    <t>npc\abilities\courier\ability3_courier_base</t>
-  </si>
-  <si>
-    <t>kunkka_torrent</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_POINT|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+    <t>npc\abilities\courier\courier_draw_card_v1</t>
+  </si>
+  <si>
+    <t>card01</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
   </si>
   <si>
     <t>Ability.Torrent</t>
+  </si>
+  <si>
+    <t>var_type
+draw_count</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+3</t>
+  </si>
+  <si>
+    <t>var_type
+wood_cost</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+5</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v2</t>
+  </si>
+  <si>
+    <t>中级抽卡</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_draw_card_v2</t>
+  </si>
+  <si>
+    <t>card02</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+10</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v3</t>
+  </si>
+  <si>
+    <t>高级抽卡</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_draw_card_v3</t>
+  </si>
+  <si>
+    <t>card03</t>
+  </si>
+  <si>
+    <t>FIELD_INTEGER
+20</t>
+  </si>
+  <si>
+    <t>courier_auto_gold</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_auto_gold</t>
+  </si>
+  <si>
+    <t>auto_gold</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
   </si>
   <si>
     <t>var_type
@@ -279,13 +342,46 @@
 stun_duration</t>
   </si>
   <si>
-    <t>ability6_courier_base</t>
-  </si>
-  <si>
-    <t>标记</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\ability6_courier_base</t>
+    <t>courier_fire_chess</t>
+  </si>
+  <si>
+    <t>集火</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_fire_chess</t>
+  </si>
+  <si>
+    <t>fire_chess</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+  </si>
+  <si>
+    <t>courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>售卖棋子</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>recovery_chess</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
+  </si>
+  <si>
+    <t>courier_upgrade_chess</t>
+  </si>
+  <si>
+    <t>棋子升阶</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_upgrade_chess</t>
+  </si>
+  <si>
+    <t>upgrade_chess</t>
   </si>
   <si>
     <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
@@ -294,123 +390,6 @@
     <t>DOTA_UNIT_TARGET_HERO</t>
   </si>
   <si>
-    <t>courier_draw_card_v1</t>
-  </si>
-  <si>
-    <t>初级抽卡</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_draw_card_v1</t>
-  </si>
-  <si>
-    <t>card01</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
-  </si>
-  <si>
-    <t>var_type
-draw_count</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
-3</t>
-  </si>
-  <si>
-    <t>var_type
-wood_cost</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
-5</t>
-  </si>
-  <si>
-    <t>courier_draw_card_v2</t>
-  </si>
-  <si>
-    <t>中级抽卡</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_draw_card_v2</t>
-  </si>
-  <si>
-    <t>card02</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
-10</t>
-  </si>
-  <si>
-    <t>courier_draw_card_v3</t>
-  </si>
-  <si>
-    <t>高级抽卡</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_draw_card_v3</t>
-  </si>
-  <si>
-    <t>card03</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
-20</t>
-  </si>
-  <si>
-    <t>courier_auto_gold</t>
-  </si>
-  <si>
-    <t>获得金币</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_auto_gold</t>
-  </si>
-  <si>
-    <t>auto_gold</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
-  </si>
-  <si>
-    <t>courier_fire_chess</t>
-  </si>
-  <si>
-    <t>集火</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_fire_chess</t>
-  </si>
-  <si>
-    <t>fire_chess</t>
-  </si>
-  <si>
-    <t>courier_recovery_chess</t>
-  </si>
-  <si>
-    <t>售卖棋子</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_recovery_chess</t>
-  </si>
-  <si>
-    <t>recovery_chess</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_CHANNELLED | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
-  </si>
-  <si>
-    <t>courier_upgrade_chess</t>
-  </si>
-  <si>
-    <t>棋子升阶</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_upgrade_chess</t>
-  </si>
-  <si>
-    <t>upgrade_chess</t>
-  </si>
-  <si>
     <t>courier_challenge_gold</t>
   </si>
   <si>
@@ -420,6 +399,9 @@
     <t>npc\abilities\courier\courier_challenge_gold</t>
   </si>
   <si>
+    <t>kunkka_torrent</t>
+  </si>
+  <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
   </si>
   <si>
@@ -448,6 +430,135 @@
   </si>
   <si>
     <t>npc\abilities\courier\courier_challenge_artifact</t>
+  </si>
+  <si>
+    <t>courier_extra_gold_sec_1</t>
+  </si>
+  <si>
+    <t>courier_extra_kill_1</t>
+  </si>
+  <si>
+    <t>courier_extra_gold_sec_3</t>
+  </si>
+  <si>
+    <t>courier_extra_card_2</t>
+  </si>
+  <si>
+    <t>courier_extra_star_up_3</t>
+  </si>
+  <si>
+    <t>courier_extra_population_3</t>
+  </si>
+  <si>
+    <t>courier_extra_tower_unique_3</t>
+  </si>
+  <si>
+    <t>courier_extra_weapon_master_3</t>
+  </si>
+  <si>
+    <t>courier_extra_random_item_3</t>
+  </si>
+  <si>
+    <t>courier_extra_card_3</t>
+  </si>
+  <si>
+    <t>courier_extra_more_card_3</t>
+  </si>
+  <si>
+    <t>courier_extra_wood_sec_3</t>
+  </si>
+  <si>
+    <t>courier_extra_more_card_2</t>
+  </si>
+  <si>
+    <t>courier_extra_star_up_2</t>
+  </si>
+  <si>
+    <t>courier_extra_population_2</t>
+  </si>
+  <si>
+    <t>courier_extra_weapon_master_2</t>
+  </si>
+  <si>
+    <t>courier_extra_random_item_2</t>
+  </si>
+  <si>
+    <t>courier_extra_tower_unique_2</t>
+  </si>
+  <si>
+    <t>courier_extra_gold_sec_2</t>
+  </si>
+  <si>
+    <t>courier_extra_wood_sec_2</t>
+  </si>
+  <si>
+    <t>courier_extra_artifact_select</t>
+  </si>
+  <si>
+    <t>courier_extra_star_up_1</t>
+  </si>
+  <si>
+    <t>courier_extra_population_1</t>
+  </si>
+  <si>
+    <t>courier_extra_tower_unique_1</t>
+  </si>
+  <si>
+    <t>courier_extra_weapon_master_1</t>
+  </si>
+  <si>
+    <t>courier_extra_random_item_1</t>
+  </si>
+  <si>
+    <t>courier_extra_card_1</t>
+  </si>
+  <si>
+    <t>courier_extra_more_card_1</t>
+  </si>
+  <si>
+    <t>courier_extra_wood_sec_1</t>
+  </si>
+  <si>
+    <t>courier_extra_chest_killer_3</t>
+  </si>
+  <si>
+    <t>courier_extra_shop_discount_3</t>
+  </si>
+  <si>
+    <t>courier_extra_shop_discount_2</t>
+  </si>
+  <si>
+    <t>courier_extra_shop_discount_1</t>
+  </si>
+  <si>
+    <t>courier_extra_artifact_3</t>
+  </si>
+  <si>
+    <t>courier_extra_artifact_2</t>
+  </si>
+  <si>
+    <t>courier_extra_artifact_1</t>
+  </si>
+  <si>
+    <t>courier_extra_upgrade_item_3</t>
+  </si>
+  <si>
+    <t>courier_extra_upgrade_item_2</t>
+  </si>
+  <si>
+    <t>courier_extra_upgrade_item_1</t>
+  </si>
+  <si>
+    <t>courier_extra_max_gold_3</t>
+  </si>
+  <si>
+    <t>courier_extra_all_stat_2</t>
+  </si>
+  <si>
+    <t>courier_extra_all_stat_1</t>
+  </si>
+  <si>
+    <t>courier_extra_all_stat_3</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -544,9 +655,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -891,12 +1009,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1003,10 +1136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,36 +1148,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,98 +1184,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1174,6 +1307,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1497,17 +1642,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AR57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12:E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.475" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
@@ -1539,7 +1684,7 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:44">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -1673,7 +1818,7 @@
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:44">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1806,8 +1951,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:36">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="3" customFormat="1" ht="28.5" spans="1:36">
+      <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1832,24 +1977,15 @@
         <v>1</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
       <c r="T3" s="3" t="s">
         <v>76</v>
       </c>
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
       <c r="X3" s="3">
         <v>1500</v>
       </c>
@@ -1859,79 +1995,58 @@
       <c r="Z3" s="3">
         <v>0</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="28.5" spans="1:36">
+      <c r="A4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AJ3" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:36">
-      <c r="A4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="8"/>
       <c r="T4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="U4" s="3">
         <v>1</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
       <c r="X4" s="3">
         <v>1500</v>
       </c>
@@ -1941,59 +2056,51 @@
       <c r="Z4" s="3">
         <v>0</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="28" spans="1:36">
+      <c r="AF4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="28.5" spans="1:36">
       <c r="A5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
       <c r="M5" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>76</v>
@@ -2010,58 +2117,67 @@
       <c r="Z5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AC5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+    </row>
+    <row r="6" ht="28.5" spans="1:36">
+      <c r="A6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="28" spans="1:36">
-      <c r="A6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
       <c r="T6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="U6" s="3">
         <v>1</v>
       </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="3">
         <v>1500</v>
       </c>
@@ -2071,24 +2187,32 @@
       <c r="Z6" s="3">
         <v>0</v>
       </c>
-      <c r="AC6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AC6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AD6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="28" spans="1:36">
+      <c r="AJ6" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:36">
       <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
@@ -2114,15 +2238,24 @@
         <v>1</v>
       </c>
       <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
       <c r="T7" s="3" t="s">
         <v>76</v>
       </c>
       <c r="U7" s="3">
         <v>1</v>
       </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="3">
         <v>1500</v>
       </c>
@@ -2132,34 +2265,42 @@
       <c r="Z7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AC7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AF7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-    </row>
-    <row r="8" ht="28" spans="1:36">
-      <c r="A8" s="3" t="s">
+      <c r="AD7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:36">
+      <c r="A8" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2184,7 +2325,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="8"/>
       <c r="T8" s="3" t="s">
         <v>76</v>
       </c>
@@ -2202,42 +2343,42 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AC8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:36">
+      <c r="AC8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:36">
       <c r="A9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2252,17 +2393,23 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="R9" s="8"/>
       <c r="T9" s="3" t="s">
         <v>76</v>
       </c>
@@ -2280,61 +2427,63 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" ht="28" spans="1:36">
+      <c r="AC9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:36">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H10" s="4">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2353,60 +2502,52 @@
         <v>1500</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AC10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AD10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AF10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AG10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" ht="28" spans="1:36">
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+    </row>
+    <row r="11" ht="28.5" spans="1:36">
       <c r="A11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -2414,17 +2555,13 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="3"/>
       <c r="T11" s="3" t="s">
         <v>76</v>
       </c>
@@ -2437,57 +2574,49 @@
         <v>1500</v>
       </c>
       <c r="Y11" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="3">
         <v>0</v>
       </c>
-      <c r="AC11" s="11" t="s">
+      <c r="AC11" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AD11" s="11" t="s">
+      <c r="AD11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AF11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" ht="28" spans="1:36">
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:36">
       <c r="A12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>127</v>
+      <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="H12" s="4">
         <v>50</v>
@@ -2495,51 +2624,42 @@
       <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="8"/>
+        <v>123</v>
+      </c>
       <c r="T12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
       <c r="X12" s="3">
         <v>1500</v>
       </c>
       <c r="Y12" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-    </row>
-    <row r="13" ht="28" spans="1:36">
+      <c r="AC12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+    </row>
+    <row r="13" ht="28.5" spans="1:36">
       <c r="A13" s="8" t="s">
         <v>130</v>
       </c>
@@ -2559,7 +2679,7 @@
         <v>132</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="H13" s="4">
         <v>50</v>
@@ -2570,7 +2690,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2589,162 +2709,374 @@
         <v>1500</v>
       </c>
       <c r="Y13" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="28" spans="1:36">
-      <c r="A14" s="8" t="s">
+      <c r="AC13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:5">
+      <c r="A14" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:5">
+      <c r="A15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="4">
-        <v>50</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>30</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-    </row>
-    <row r="15" ht="28" spans="1:36">
-      <c r="A15" s="8" t="s">
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:5">
+      <c r="A17" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:5">
+      <c r="A18" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="4">
-        <v>50</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="T15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1</v>
-      </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>40</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2762,7 +3094,7 @@
       <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2786,10 +3118,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2917,10 +3249,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
@@ -3048,144 +3380,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>42</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="206">
   <si>
     <t>主键</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>courier_extra_gold_sec_1</t>
+  </si>
+  <si>
+    <t>额外金币</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_extra_gold_sec_1</t>
   </si>
   <si>
     <t>courier_extra_kill_1</t>
@@ -655,16 +661,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1009,27 +1008,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1136,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,33 +1132,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,101 +1171,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1309,12 +1293,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1645,19 +1623,19 @@
   <dimension ref="A1:AR57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12:E56"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14:M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.475" style="8" customWidth="1"/>
+    <col min="1" max="1" width="28.1666666666667" style="8" customWidth="1"/>
     <col min="2" max="4" width="8.75" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.16666666666667" style="9" customWidth="1"/>
-    <col min="6" max="6" width="48.4166666666667" style="9" customWidth="1"/>
+    <col min="6" max="6" width="40.6666666666667" style="9" customWidth="1"/>
     <col min="7" max="7" width="17.0833333333333" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.3333333333333" style="9" customWidth="1"/>
     <col min="9" max="9" width="16.1583333333333" style="9" customWidth="1"/>
@@ -1951,7 +1929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="28.5" spans="1:36">
+    <row r="3" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
@@ -1995,24 +1973,24 @@
       <c r="Z3" s="3">
         <v>0</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AF3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="28.5" spans="1:36">
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A4" s="8" t="s">
         <v>81</v>
       </c>
@@ -2056,24 +2034,24 @@
       <c r="Z4" s="3">
         <v>0</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="28.5" spans="1:36">
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A5" s="8" t="s">
         <v>86</v>
       </c>
@@ -2117,24 +2095,24 @@
       <c r="Z5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AD5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AF5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-    </row>
-    <row r="6" ht="28.5" spans="1:36">
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+    </row>
+    <row r="6" ht="28" spans="1:36">
       <c r="A6" s="11" t="s">
         <v>91</v>
       </c>
@@ -2187,32 +2165,32 @@
       <c r="Z6" s="3">
         <v>0</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AC6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" s="15" t="s">
+      <c r="AD6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AE6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AF6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AG6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AH6" s="15" t="s">
+      <c r="AH6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AI6" s="15" t="s">
+      <c r="AI6" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AJ6" s="15" t="s">
+      <c r="AJ6" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:36">
+    <row r="7" ht="28" spans="1:36">
       <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
@@ -2265,32 +2243,32 @@
       <c r="Z7" s="3">
         <v>0</v>
       </c>
-      <c r="AC7" s="15" t="s">
+      <c r="AC7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AD7" s="15" t="s">
+      <c r="AD7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AE7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AF7" s="15" t="s">
+      <c r="AF7" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AG7" s="15" t="s">
+      <c r="AG7" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AH7" s="15" t="s">
+      <c r="AH7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AI7" s="15" t="s">
+      <c r="AI7" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AJ7" s="15" t="s">
+      <c r="AJ7" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:36">
+    <row r="8" ht="28" spans="1:36">
       <c r="A8" s="8" t="s">
         <v>108</v>
       </c>
@@ -2343,32 +2321,32 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AD8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AE8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AF8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AG8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AH8" s="15" t="s">
+      <c r="AH8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AI8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AJ8" s="15" t="s">
+      <c r="AJ8" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:36">
+    <row r="9" ht="28" spans="1:36">
       <c r="A9" s="8" t="s">
         <v>113</v>
       </c>
@@ -2427,32 +2405,32 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AC9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="15" t="s">
+      <c r="AD9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AE9" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="15" t="s">
+      <c r="AF9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AG9" s="15" t="s">
+      <c r="AG9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AH9" s="15" t="s">
+      <c r="AH9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AI9" s="15" t="s">
+      <c r="AI9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AJ9" s="15" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:36">
+    <row r="10" ht="28" spans="1:36">
       <c r="A10" s="8" t="s">
         <v>119</v>
       </c>
@@ -2507,24 +2485,24 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AC10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD10" s="15" t="s">
+      <c r="AD10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AE10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-    </row>
-    <row r="11" ht="28.5" spans="1:36">
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+    </row>
+    <row r="11" ht="28" spans="1:36">
       <c r="A11" s="8" t="s">
         <v>124</v>
       </c>
@@ -2579,24 +2557,24 @@
       <c r="Z11" s="3">
         <v>0</v>
       </c>
-      <c r="AC11" s="15" t="s">
+      <c r="AC11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD11" s="15" t="s">
+      <c r="AD11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="15" t="s">
+      <c r="AE11" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:36">
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="28" spans="1:36">
       <c r="A12" s="8" t="s">
         <v>127</v>
       </c>
@@ -2642,24 +2620,24 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="15" t="s">
+      <c r="AC12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD12" s="15" t="s">
+      <c r="AD12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE12" s="15" t="s">
+      <c r="AE12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF12" s="15" t="s">
+      <c r="AF12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-    </row>
-    <row r="13" ht="28.5" spans="1:36">
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+    </row>
+    <row r="13" ht="28" spans="1:36">
       <c r="A13" s="8" t="s">
         <v>130</v>
       </c>
@@ -2714,369 +2692,1314 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="15" t="s">
+      <c r="AC13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD13" s="15" t="s">
+      <c r="AD13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE13" s="15" t="s">
+      <c r="AE13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:5">
-      <c r="A14" s="12" t="s">
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="B14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" spans="1:5">
-      <c r="A15" s="12" t="s">
+      <c r="F14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:5">
-      <c r="A16" s="12" t="s">
-        <v>135</v>
+      <c r="F15" s="4" t="str">
+        <f t="shared" ref="F15:F56" si="0">CONCATENATE("npc\abilities\courier\",A15)</f>
+        <v>npc\abilities\courier\courier_extra_kill_1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:5">
-      <c r="A17" s="12" t="s">
-        <v>136</v>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_gold_sec_3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>137</v>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_card_2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13" t="s">
-        <v>138</v>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_star_up_3</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
-        <v>139</v>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_population_3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
-        <v>140</v>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_tower_unique_3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
-        <v>141</v>
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_weapon_master_3</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
-        <v>142</v>
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_random_item_3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="13" t="s">
-        <v>143</v>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_card_3</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13" t="s">
-        <v>144</v>
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_more_card_3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
-        <v>145</v>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_wood_sec_3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="13" t="s">
-        <v>146</v>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_more_card_2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="13" t="s">
-        <v>147</v>
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_star_up_2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="13" t="s">
-        <v>148</v>
+      <c r="F28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_population_2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13" t="s">
-        <v>149</v>
+      <c r="F29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_weapon_master_2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="13" t="s">
-        <v>150</v>
+      <c r="F30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_random_item_2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="13" t="s">
-        <v>151</v>
+      <c r="F31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_tower_unique_2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="13" t="s">
-        <v>152</v>
+      <c r="F32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_gold_sec_2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="13" t="s">
-        <v>153</v>
+      <c r="F33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_wood_sec_2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="13" t="s">
-        <v>154</v>
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_artifact_select</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="13" t="s">
-        <v>155</v>
+      <c r="F35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_star_up_1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="13" t="s">
-        <v>156</v>
+      <c r="F36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_population_1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="13" t="s">
-        <v>157</v>
+      <c r="F37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_tower_unique_1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="13" t="s">
-        <v>158</v>
+      <c r="F38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_weapon_master_1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13" t="s">
-        <v>159</v>
+      <c r="F39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_random_item_1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="13" t="s">
-        <v>160</v>
+      <c r="F40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_card_1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13" t="s">
-        <v>161</v>
+      <c r="F41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_more_card_1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13" t="s">
-        <v>162</v>
+      <c r="F42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_wood_sec_1</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="13" t="s">
-        <v>163</v>
+      <c r="F43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_chest_killer_3</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="13" t="s">
-        <v>164</v>
+      <c r="F44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_shop_discount_3</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="13" t="s">
-        <v>165</v>
+      <c r="F45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_shop_discount_2</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="13" t="s">
-        <v>166</v>
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_shop_discount_1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="13" t="s">
-        <v>167</v>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_artifact_3</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="13" t="s">
-        <v>168</v>
+      <c r="F48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_artifact_2</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="13" t="s">
-        <v>169</v>
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_artifact_1</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="13" t="s">
-        <v>170</v>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_upgrade_item_3</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="13" t="s">
-        <v>171</v>
+      <c r="F51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_upgrade_item_2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="13" t="s">
-        <v>172</v>
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_upgrade_item_1</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="13" t="s">
-        <v>173</v>
+      <c r="F53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_max_gold_3</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="13" t="s">
-        <v>174</v>
+      <c r="F54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_all_stat_2</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="13" t="s">
-        <v>175</v>
+      <c r="F55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_all_stat_1</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>npc\abilities\courier\courier_extra_all_stat_3</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="14"/>
+      <c r="A57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3094,7 +4017,7 @@
       <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -3118,10 +4041,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3249,10 +4172,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
@@ -3380,144 +4303,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>42</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="11730"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
     <t>courier_extra_gold_sec_1</t>
   </si>
   <si>
-    <t>额外金币</t>
+    <t>信使额外技能</t>
   </si>
   <si>
     <t>npc\abilities\courier\courier_extra_gold_sec_1</t>
@@ -1623,11 +1623,11 @@
   <dimension ref="A1:AR57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14:M56"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="199">
   <si>
     <t>主键</t>
   </si>
@@ -251,20 +251,10 @@
     <t>Ability.Torrent</t>
   </si>
   <si>
-    <t>var_type
-draw_count</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
-3</t>
-  </si>
-  <si>
-    <t>var_type
-wood_cost</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
-5</t>
+    <t>draw_count</t>
+  </si>
+  <si>
+    <t>wood_cost</t>
   </si>
   <si>
     <t>courier_draw_card_v2</t>
@@ -279,10 +269,6 @@
     <t>card02</t>
   </si>
   <si>
-    <t>FIELD_INTEGER
-10</t>
-  </si>
-  <si>
     <t>courier_draw_card_v3</t>
   </si>
   <si>
@@ -295,10 +281,6 @@
     <t>card03</t>
   </si>
   <si>
-    <t>FIELD_INTEGER
-20</t>
-  </si>
-  <si>
     <t>courier_auto_gold</t>
   </si>
   <si>
@@ -314,32 +296,16 @@
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
   </si>
   <si>
-    <t>var_type
-radius</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
-350</t>
-  </si>
-  <si>
-    <t>var_type
-movespeed_bonus</t>
-  </si>
-  <si>
-    <t>FIELD_INTEGER
--50</t>
-  </si>
-  <si>
-    <t>var_type
-slow_duration</t>
-  </si>
-  <si>
-    <t>FIELD_FLOAT
-2</t>
-  </si>
-  <si>
-    <t>var_type
-stun_duration</t>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>movespeed_bonus</t>
+  </si>
+  <si>
+    <t>slow_duration</t>
+  </si>
+  <si>
+    <t>stun_duration</t>
   </si>
   <si>
     <t>courier_fire_chess</t>
@@ -1623,11 +1589,11 @@
   <dimension ref="A1:AR57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14:D56"/>
+      <selection pane="bottomRight" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1929,7 +1895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="28" spans="1:36">
+    <row r="3" s="3" customFormat="1" spans="1:36">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
@@ -1976,41 +1942,41 @@
       <c r="AC3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>80</v>
+      <c r="AF3" s="13">
+        <v>5</v>
       </c>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="28" spans="1:36">
+    <row r="4" s="3" customFormat="1" spans="1:36">
       <c r="A4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -2037,41 +2003,41 @@
       <c r="AC4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AD4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>85</v>
+      <c r="AF4" s="13">
+        <v>10</v>
       </c>
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="28" spans="1:36">
+    <row r="5" s="3" customFormat="1" spans="1:36">
       <c r="A5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -2098,41 +2064,41 @@
       <c r="AC5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>90</v>
+      <c r="AF5" s="13">
+        <v>20</v>
       </c>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" ht="28" spans="1:36">
+    <row r="6" spans="1:36">
       <c r="A6" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -2141,7 +2107,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2166,51 +2132,51 @@
         <v>0</v>
       </c>
       <c r="AC6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>350</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>-50</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="C7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="G7" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ6" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:36">
-      <c r="A7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -2219,7 +2185,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2244,51 +2210,51 @@
         <v>0</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>350</v>
       </c>
       <c r="AE7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF7" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>-50</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AI7" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AJ7" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="1:36">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -2297,7 +2263,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2322,51 +2288,51 @@
         <v>0</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>350</v>
       </c>
       <c r="AE8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>-50</v>
       </c>
       <c r="AG8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH8" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>2</v>
       </c>
       <c r="AI8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ8" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:36">
+        <v>95</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -2377,14 +2343,14 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="8"/>
@@ -2406,51 +2372,51 @@
         <v>0</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD9" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>350</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF9" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>-50</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH9" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>2</v>
       </c>
       <c r="AI9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ9" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" ht="28" spans="1:36">
+        <v>95</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H10" s="4">
         <v>50</v>
@@ -2461,7 +2427,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2488,41 +2454,41 @@
       <c r="AC10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD10" s="13" t="s">
+      <c r="AD10" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF10" s="13" t="s">
-        <v>80</v>
+      <c r="AF10" s="13">
+        <v>5</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
     </row>
-    <row r="11" ht="28" spans="1:36">
+    <row r="11" spans="1:36">
       <c r="A11" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H11" s="4">
         <v>50</v>
@@ -2533,7 +2499,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2560,41 +2526,41 @@
       <c r="AC11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AD11" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>80</v>
+      <c r="AF11" s="13">
+        <v>5</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="28" spans="1:36">
+    <row r="12" s="3" customFormat="1" spans="1:36">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H12" s="4">
         <v>50</v>
@@ -2603,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>76</v>
@@ -2623,41 +2589,41 @@
       <c r="AC12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AD12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>80</v>
+      <c r="AF12" s="13">
+        <v>5</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
     </row>
-    <row r="13" ht="28" spans="1:36">
+    <row r="13" spans="1:36">
       <c r="A13" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H13" s="4">
         <v>50</v>
@@ -2668,7 +2634,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2695,14 +2661,14 @@
       <c r="AC13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD13" s="13" t="s">
+      <c r="AD13" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AE13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>80</v>
+      <c r="AF13" s="13">
+        <v>5</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
@@ -2711,45 +2677,45 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>72</v>
@@ -2759,27 +2725,27 @@
         <v>npc\abilities\courier\courier_extra_kill_1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>72</v>
@@ -2789,27 +2755,27 @@
         <v>npc\abilities\courier\courier_extra_gold_sec_3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>72</v>
@@ -2819,27 +2785,27 @@
         <v>npc\abilities\courier\courier_extra_card_2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H17" s="4">
         <v>1</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>72</v>
@@ -2849,27 +2815,27 @@
         <v>npc\abilities\courier\courier_extra_star_up_3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>72</v>
@@ -2879,27 +2845,27 @@
         <v>npc\abilities\courier\courier_extra_population_3</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>72</v>
@@ -2909,27 +2875,27 @@
         <v>npc\abilities\courier\courier_extra_tower_unique_3</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>72</v>
@@ -2939,27 +2905,27 @@
         <v>npc\abilities\courier\courier_extra_weapon_master_3</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>72</v>
@@ -2969,27 +2935,27 @@
         <v>npc\abilities\courier\courier_extra_random_item_3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>72</v>
@@ -2999,27 +2965,27 @@
         <v>npc\abilities\courier\courier_extra_card_3</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>72</v>
@@ -3029,27 +2995,27 @@
         <v>npc\abilities\courier\courier_extra_more_card_3</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>72</v>
@@ -3059,27 +3025,27 @@
         <v>npc\abilities\courier\courier_extra_wood_sec_3</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>72</v>
@@ -3089,27 +3055,27 @@
         <v>npc\abilities\courier\courier_extra_more_card_2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>72</v>
@@ -3119,27 +3085,27 @@
         <v>npc\abilities\courier\courier_extra_star_up_2</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>72</v>
@@ -3149,27 +3115,27 @@
         <v>npc\abilities\courier\courier_extra_population_2</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>72</v>
@@ -3179,27 +3145,27 @@
         <v>npc\abilities\courier\courier_extra_weapon_master_2</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>72</v>
@@ -3209,27 +3175,27 @@
         <v>npc\abilities\courier\courier_extra_random_item_2</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>72</v>
@@ -3239,27 +3205,27 @@
         <v>npc\abilities\courier\courier_extra_tower_unique_2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>72</v>
@@ -3269,27 +3235,27 @@
         <v>npc\abilities\courier\courier_extra_gold_sec_2</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>72</v>
@@ -3299,27 +3265,27 @@
         <v>npc\abilities\courier\courier_extra_wood_sec_2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>72</v>
@@ -3329,27 +3295,27 @@
         <v>npc\abilities\courier\courier_extra_artifact_select</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>72</v>
@@ -3359,27 +3325,27 @@
         <v>npc\abilities\courier\courier_extra_star_up_1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>72</v>
@@ -3389,27 +3355,27 @@
         <v>npc\abilities\courier\courier_extra_population_1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>72</v>
@@ -3419,27 +3385,27 @@
         <v>npc\abilities\courier\courier_extra_tower_unique_1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>72</v>
@@ -3449,27 +3415,27 @@
         <v>npc\abilities\courier\courier_extra_weapon_master_1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>72</v>
@@ -3479,27 +3445,27 @@
         <v>npc\abilities\courier\courier_extra_random_item_1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>72</v>
@@ -3509,27 +3475,27 @@
         <v>npc\abilities\courier\courier_extra_card_1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>72</v>
@@ -3539,27 +3505,27 @@
         <v>npc\abilities\courier\courier_extra_more_card_1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>72</v>
@@ -3569,27 +3535,27 @@
         <v>npc\abilities\courier\courier_extra_wood_sec_1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>72</v>
@@ -3599,27 +3565,27 @@
         <v>npc\abilities\courier\courier_extra_chest_killer_3</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>72</v>
@@ -3629,27 +3595,27 @@
         <v>npc\abilities\courier\courier_extra_shop_discount_3</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>72</v>
@@ -3659,27 +3625,27 @@
         <v>npc\abilities\courier\courier_extra_shop_discount_2</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>72</v>
@@ -3689,27 +3655,27 @@
         <v>npc\abilities\courier\courier_extra_shop_discount_1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>72</v>
@@ -3719,27 +3685,27 @@
         <v>npc\abilities\courier\courier_extra_artifact_3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>72</v>
@@ -3749,27 +3715,27 @@
         <v>npc\abilities\courier\courier_extra_artifact_2</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H48" s="4">
         <v>1</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>72</v>
@@ -3779,27 +3745,27 @@
         <v>npc\abilities\courier\courier_extra_artifact_1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H49" s="4">
         <v>1</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>72</v>
@@ -3809,27 +3775,27 @@
         <v>npc\abilities\courier\courier_extra_upgrade_item_3</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H50" s="4">
         <v>1</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>72</v>
@@ -3839,27 +3805,27 @@
         <v>npc\abilities\courier\courier_extra_upgrade_item_2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H51" s="4">
         <v>1</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>72</v>
@@ -3869,27 +3835,27 @@
         <v>npc\abilities\courier\courier_extra_upgrade_item_1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H52" s="4">
         <v>1</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>72</v>
@@ -3899,27 +3865,27 @@
         <v>npc\abilities\courier\courier_extra_max_gold_3</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H53" s="4">
         <v>1</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>72</v>
@@ -3929,27 +3895,27 @@
         <v>npc\abilities\courier\courier_extra_all_stat_2</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H54" s="4">
         <v>1</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>72</v>
@@ -3959,27 +3925,27 @@
         <v>npc\abilities\courier\courier_extra_all_stat_1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H55" s="4">
         <v>1</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>72</v>
@@ -3989,13 +3955,13 @@
         <v>npc\abilities\courier\courier_extra_all_stat_3</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H56" s="4">
         <v>1</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -4041,10 +4007,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -4172,10 +4138,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
@@ -4303,144 +4269,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>42</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="210">
   <si>
     <t>主键</t>
   </si>
@@ -228,7 +228,7 @@
     <t>ability_lua</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_draw_card_v1</t>
+    <t>npc\abilities\courier\courier_draw_card</t>
   </si>
   <si>
     <t>card01</t>
@@ -255,9 +255,6 @@
     <t>中级抽卡</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_draw_card_v2</t>
-  </si>
-  <si>
     <t>card02</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>高级抽卡</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_draw_card_v3</t>
-  </si>
-  <si>
     <t>card03</t>
   </si>
   <si>
@@ -330,37 +324,10 @@
     <t>gold_pect</t>
   </si>
   <si>
-    <t>courier_fire_chess</t>
-  </si>
-  <si>
-    <t>集火</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_fire_chess</t>
-  </si>
-  <si>
-    <t>fire_chess</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_POINT|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>movespeed_bonus</t>
-  </si>
-  <si>
-    <t>slow_duration</t>
-  </si>
-  <si>
-    <t>stun_duration</t>
-  </si>
-  <si>
-    <t>courier_upgrade_chess</t>
-  </si>
-  <si>
-    <t>棋子升阶</t>
+    <t>courier_upgrade_population</t>
+  </si>
+  <si>
+    <t>提升人口</t>
   </si>
   <si>
     <t>npc\abilities\courier\courier_upgrade_chess</t>
@@ -369,10 +336,22 @@
     <t>upgrade_chess</t>
   </si>
   <si>
-    <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_HERO</t>
+    <t>wood_cost</t>
+  </si>
+  <si>
+    <t>population_add</t>
+  </si>
+  <si>
+    <t>courier_upgrade_tech</t>
+  </si>
+  <si>
+    <t>提升科技</t>
+  </si>
+  <si>
+    <t>good_add_interval</t>
+  </si>
+  <si>
+    <t>wood_add_interval</t>
   </si>
   <si>
     <t>courier_challenge_gold</t>
@@ -381,7 +360,7 @@
     <t>金币挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_challenge_gold</t>
+    <t>npc\abilities\courier\courier_challenge_enemy</t>
   </si>
   <si>
     <t>kunkka_torrent</t>
@@ -393,43 +372,31 @@
     <t>draw_count</t>
   </si>
   <si>
-    <t>wood_cost</t>
-  </si>
-  <si>
     <t>courier_challenge_wood</t>
   </si>
   <si>
     <t>木材挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_challenge_wood</t>
-  </si>
-  <si>
     <t>courier_challenge_equip</t>
   </si>
   <si>
     <t>装备挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_challenge_equip</t>
-  </si>
-  <si>
     <t>courier_challenge_artifact</t>
   </si>
   <si>
     <t>神器挑战</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_challenge_artifact</t>
-  </si>
-  <si>
     <t>courier_extra_all_stat_1</t>
   </si>
   <si>
     <t>信使额外技能</t>
   </si>
   <si>
-    <t>npc\abilities\courier\courier_extra_gold_sec_1</t>
+    <t>npc\abilities\courier\courier_extra_gold_sec</t>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
@@ -507,12 +474,21 @@
     <t>courier_extra_population_1</t>
   </si>
   <si>
+    <t>信使-人口提升C</t>
+  </si>
+  <si>
     <t>courier_extra_population_2</t>
   </si>
   <si>
+    <t>信使-人口提升B</t>
+  </si>
+  <si>
     <t>courier_extra_population_3</t>
   </si>
   <si>
+    <t>信使-人口提升A</t>
+  </si>
+  <si>
     <t>courier_extra_random_item_1</t>
   </si>
   <si>
@@ -571,6 +547,9 @@
   </si>
   <si>
     <t>信使-木材宝藏C</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_extra_wood_sec</t>
   </si>
   <si>
     <t>wood_interval</t>
@@ -1283,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1308,16 +1287,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1653,24 +1635,24 @@
   <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.1666666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.2083333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.16666666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.6666666666667" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.0833333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="28.1666666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.2083333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.6666666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.0833333333333" style="9" customWidth="1"/>
     <col min="6" max="6" width="12.3333333333333" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.1583333333333" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.4166666666667" style="10" customWidth="1"/>
-    <col min="9" max="10" width="20.9166666666667" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.1583333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.4166666666667" style="9" customWidth="1"/>
+    <col min="9" max="10" width="20.9166666666667" style="9" customWidth="1"/>
     <col min="11" max="14" width="13.1666666666667" style="11" customWidth="1"/>
     <col min="15" max="16" width="20.5" style="11" customWidth="1"/>
     <col min="17" max="18" width="17.75" style="11" customWidth="1"/>
@@ -1684,7 +1666,7 @@
     <col min="28" max="28" width="13.6666666666667" style="11" customWidth="1"/>
     <col min="29" max="29" width="15.5833333333333" style="11" customWidth="1"/>
     <col min="30" max="30" width="12.3166666666667" style="11" customWidth="1"/>
-    <col min="31" max="31" width="12.6666666666667" style="11" customWidth="1"/>
+    <col min="31" max="31" width="17.8166666666667" style="11" customWidth="1"/>
     <col min="32" max="32" width="11.8333333333333" style="11" customWidth="1"/>
     <col min="33" max="33" width="12.5" style="11" customWidth="1"/>
     <col min="34" max="34" width="11.8333333333333" style="11" customWidth="1"/>
@@ -1695,7 +1677,7 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1687,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1821,7 +1803,7 @@
       <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1831,7 +1813,7 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1944,7 +1926,7 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:34">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1959,7 +1941,7 @@
       <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="13">
         <v>1</v>
       </c>
       <c r="G3" s="4"/>
@@ -1981,10 +1963,10 @@
       <c r="X3" s="3">
         <v>0</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="16">
         <v>10</v>
       </c>
       <c r="AC3" s="3" t="s">
@@ -1993,17 +1975,17 @@
       <c r="AD3" s="3">
         <v>80</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="16">
         <v>20</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:34">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2013,12 +1995,12 @@
         <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="F4" s="13">
         <v>1</v>
       </c>
       <c r="G4" s="4"/>
@@ -2040,10 +2022,10 @@
       <c r="X4" s="3">
         <v>0</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="16">
         <v>20</v>
       </c>
       <c r="AC4" s="3" t="s">
@@ -2052,36 +2034,36 @@
       <c r="AD4" s="3">
         <v>20</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="16">
         <v>60</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:34">
+      <c r="A5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AH4" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:34">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="4"/>
@@ -2103,10 +2085,10 @@
       <c r="X5" s="3">
         <v>0</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="16">
         <v>50</v>
       </c>
       <c r="AC5" s="3" t="s">
@@ -2115,51 +2097,50 @@
       <c r="AD5" s="3">
         <v>20</v>
       </c>
-      <c r="AE5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="15">
+      <c r="AE5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF5" s="16">
         <v>60</v>
       </c>
-      <c r="AG5" s="15" t="s">
+      <c r="AG5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="28" spans="1:38">
+      <c r="A6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AH5" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="28" spans="1:42">
-      <c r="A6" s="12" t="s">
+      <c r="C6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="9"/>
       <c r="R6" s="12" t="s">
         <v>72</v>
       </c>
@@ -2177,79 +2158,73 @@
       <c r="X6" s="12">
         <v>0</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AB6" s="15">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AF6" s="17">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AD6" s="15">
-        <v>100</v>
-      </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AH6" s="17">
+        <v>20</v>
+      </c>
+      <c r="AI6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AF6" s="16">
-        <v>20</v>
-      </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AJ6" s="8">
+        <v>150</v>
+      </c>
+      <c r="AK6" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" s="16">
-        <v>20</v>
-      </c>
-      <c r="AI6" s="16" t="s">
+      <c r="AL6" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AJ6" s="9">
-        <v>150</v>
-      </c>
-      <c r="AK6" s="16" t="s">
+      <c r="B7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AL6" s="9">
-        <v>300</v>
-      </c>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="8"/>
       <c r="R7" s="3" t="s">
         <v>72</v>
       </c>
@@ -2267,49 +2242,49 @@
       <c r="X7" s="3">
         <v>0</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:34">
+      <c r="A8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="15">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>107</v>
+      <c r="K8" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="P8" s="8"/>
       <c r="R8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2327,67 +2302,57 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+    </row>
+    <row r="9" ht="19" customHeight="1" spans="1:34">
+      <c r="A9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AB8" s="15">
-        <v>350</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD8" s="15">
-        <v>-50</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH8" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>107</v>
+      <c r="K9" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="8"/>
       <c r="R9" s="3" t="s">
         <v>72</v>
       </c>
@@ -2405,48 +2370,44 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="AA9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB9" s="15">
-        <v>350</v>
-      </c>
-      <c r="AC9" s="15" t="s">
+      <c r="AA9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>50</v>
+      </c>
+      <c r="AC9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="AD9" s="15">
-        <v>-50</v>
-      </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AD9" s="16">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AF9" s="15">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="15" t="s">
+      <c r="AF9" s="16">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AH9" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>119</v>
+      <c r="B10" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="4">
+        <v>114</v>
+      </c>
+      <c r="F10" s="13">
         <v>50</v>
       </c>
       <c r="G10" s="4">
@@ -2455,13 +2416,13 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="8"/>
       <c r="R10" s="3" t="s">
         <v>72</v>
       </c>
@@ -2479,40 +2440,40 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB10" s="15">
+      <c r="AA10" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB10" s="16">
         <v>3</v>
       </c>
-      <c r="AC10" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD10" s="15">
+      <c r="AC10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD10" s="16">
         <v>5</v>
       </c>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="9" t="s">
-        <v>125</v>
+      <c r="A11" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="4">
+        <v>114</v>
+      </c>
+      <c r="F11" s="13">
         <v>50</v>
       </c>
       <c r="G11" s="4">
@@ -2521,7 +2482,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2545,47 +2506,47 @@
       <c r="X11" s="3">
         <v>0</v>
       </c>
-      <c r="AA11" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB11" s="15">
+      <c r="AA11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB11" s="16">
         <v>3</v>
       </c>
-      <c r="AC11" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD11" s="15">
+      <c r="AC11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD11" s="16">
         <v>5</v>
       </c>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:34">
-      <c r="A12" s="9" t="s">
-        <v>128</v>
+      <c r="A12" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="4">
+        <v>114</v>
+      </c>
+      <c r="F12" s="13">
         <v>50</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>72</v>
@@ -2602,40 +2563,40 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB12" s="15">
+      <c r="AA12" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB12" s="16">
         <v>3</v>
       </c>
-      <c r="AC12" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD12" s="15">
+      <c r="AC12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD12" s="16">
         <v>5</v>
       </c>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="9" t="s">
-        <v>131</v>
+      <c r="A13" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="4">
+        <v>114</v>
+      </c>
+      <c r="F13" s="13">
         <v>50</v>
       </c>
       <c r="G13" s="4">
@@ -2644,7 +2605,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2668,1128 +2629,1086 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AB13" s="15">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="15" t="s">
+      <c r="B14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AD13" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="B24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="9" t="s">
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA25" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9" t="s">
+      <c r="AB25" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA25" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB25" s="15">
-        <v>10</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="AD25" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>153</v>
+      <c r="A26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
+      <c r="D26" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="4">
+        <v>114</v>
+      </c>
+      <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA26" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB26" s="15">
+        <v>126</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB26" s="16">
         <v>20</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AD26" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>155</v>
+      <c r="A27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
+      <c r="D27" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="4">
+        <v>114</v>
+      </c>
+      <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA27" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB27" s="15">
+        <v>126</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB27" s="16">
         <v>30</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AD27" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="9" t="s">
+      <c r="B36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="9" t="s">
+      <c r="B37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="9" t="s">
+      <c r="B38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="9" t="s">
+      <c r="B39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="9" t="s">
+      <c r="B40" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="9" t="s">
+      <c r="B41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="9" t="s">
+      <c r="B42" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="9" t="s">
+      <c r="B43" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="9" t="s">
+      <c r="B44" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="9" t="s">
+      <c r="B45" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="9" t="s">
+      <c r="B46" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="9" t="s">
+      <c r="B47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="9" t="s">
+      <c r="B48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="9" t="s">
+      <c r="B49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="9" t="s">
+      <c r="B50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="9" t="s">
+      <c r="B51" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="9" t="s">
+      <c r="B52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="9" t="s">
+      <c r="B53" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="9" t="s">
+      <c r="C54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="9" t="s">
+      <c r="E54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA54" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
-      <c r="A54" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA54" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB54" s="15">
+      <c r="AB54" s="16">
         <v>10</v>
       </c>
       <c r="AC54" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AD54" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>186</v>
+      <c r="A55" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
+      <c r="D55" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="4">
+        <v>114</v>
+      </c>
+      <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA55" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB55" s="15">
+        <v>126</v>
+      </c>
+      <c r="AA55" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB55" s="16">
         <v>20</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AD55" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>188</v>
+      <c r="A56" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="4" t="e">
-        <f>CONCATENATE("npc\abilities\courier\",#REF!)</f>
-        <v>#REF!</v>
+      <c r="D56" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="4">
+        <v>114</v>
+      </c>
+      <c r="F56" s="13">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA56" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB56" s="15">
+        <v>126</v>
+      </c>
+      <c r="AA56" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB56" s="16">
         <v>30</v>
       </c>
       <c r="AC56" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AD56" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3831,10 +3750,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3962,10 +3881,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -4093,144 +4012,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AK3" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AP3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="212">
   <si>
     <t>主键</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>wood_add_interval</t>
+  </si>
+  <si>
+    <t>soul_add_interval</t>
+  </si>
+  <si>
+    <t>stat_all_add</t>
   </si>
   <si>
     <t>courier_challenge_gold</t>
@@ -1262,7 +1268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1312,6 +1318,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1635,11 +1644,11 @@
   <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10:D13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1967,19 +1976,19 @@
         <v>73</v>
       </c>
       <c r="AB3" s="16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD3" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AE3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="AF3" s="16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -2026,7 +2035,7 @@
         <v>73</v>
       </c>
       <c r="AB4" s="16">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>74</v>
@@ -2089,7 +2098,7 @@
         <v>73</v>
       </c>
       <c r="AB5" s="16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>75</v>
@@ -2168,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="AD6" s="16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AE6" s="17" t="s">
         <v>91</v>
@@ -2180,18 +2189,18 @@
         <v>92</v>
       </c>
       <c r="AH6" s="17">
-        <v>20</v>
-      </c>
-      <c r="AI6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="9">
         <v>150</v>
       </c>
-      <c r="AK6" s="17" t="s">
+      <c r="AK6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="AL6" s="8">
+      <c r="AL6" s="9">
         <v>300</v>
       </c>
     </row>
@@ -2323,7 +2332,7 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
     </row>
-    <row r="9" ht="19" customHeight="1" spans="1:34">
+    <row r="9" ht="19" customHeight="1" spans="1:36">
       <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
@@ -2388,24 +2397,34 @@
       <c r="AF9" s="16">
         <v>5</v>
       </c>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
+      <c r="AG9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F10" s="13">
         <v>50</v>
@@ -2416,7 +2435,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2441,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB10" s="16">
         <v>3</v>
@@ -2459,19 +2478,19 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F11" s="13">
         <v>50</v>
@@ -2482,7 +2501,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2507,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB11" s="16">
         <v>3</v>
@@ -2525,19 +2544,19 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:34">
       <c r="A12" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F12" s="13">
         <v>50</v>
@@ -2546,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>72</v>
@@ -2564,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB12" s="16">
         <v>3</v>
@@ -2582,19 +2601,19 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F13" s="13">
         <v>50</v>
@@ -2605,7 +2624,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2630,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB13" s="16">
         <v>3</v>
@@ -2648,287 +2667,287 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AB25" s="16">
         <v>10</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD25" s="11">
         <v>5</v>
@@ -2936,34 +2955,34 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA26" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA26" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="AB26" s="16">
         <v>20</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD26" s="11">
         <v>5</v>
@@ -2971,34 +2990,34 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AB27" s="16">
         <v>30</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD27" s="11">
         <v>5</v>
@@ -3006,131 +3025,131 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>87</v>
@@ -3139,21 +3158,21 @@
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>87</v>
@@ -3162,21 +3181,21 @@
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>87</v>
@@ -3185,453 +3204,453 @@
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F54" s="13">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AB54" s="16">
         <v>10</v>
       </c>
       <c r="AC54" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD54" s="11">
         <v>5</v>
@@ -3639,34 +3658,34 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="E55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA55" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA55" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="AB55" s="16">
         <v>20</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD55" s="11">
         <v>5</v>
@@ -3674,34 +3693,34 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AB56" s="16">
         <v>30</v>
       </c>
       <c r="AC56" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD56" s="11">
         <v>5</v>
@@ -3750,10 +3769,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3881,10 +3900,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -4012,144 +4031,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="215">
   <si>
     <t>主键</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>stat_all_add</t>
+  </si>
+  <si>
+    <t>poolgroupconfig_1</t>
+  </si>
+  <si>
+    <t>poolgroupconfig_2</t>
+  </si>
+  <si>
+    <t>poolgroupconfig_3</t>
   </si>
   <si>
     <t>courier_challenge_gold</t>
@@ -667,9 +676,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1126,10 +1142,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,34 +1154,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,98 +1190,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1321,6 +1337,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1644,11 +1664,11 @@
   <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection pane="bottomRight" activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2332,7 +2352,7 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
     </row>
-    <row r="9" ht="19" customHeight="1" spans="1:36">
+    <row r="9" ht="19" customHeight="1" spans="1:42">
       <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
@@ -2409,22 +2429,40 @@
       <c r="AJ9" s="11">
         <v>2</v>
       </c>
+      <c r="AK9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL9" s="20">
+        <v>10007</v>
+      </c>
+      <c r="AM9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN9" s="20">
+        <v>10008</v>
+      </c>
+      <c r="AO9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP9" s="20">
+        <v>10009</v>
+      </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F10" s="13">
         <v>50</v>
@@ -2435,7 +2473,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2460,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB10" s="16">
         <v>3</v>
@@ -2478,19 +2516,19 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F11" s="13">
         <v>50</v>
@@ -2501,7 +2539,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2526,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB11" s="16">
         <v>3</v>
@@ -2544,19 +2582,19 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:34">
       <c r="A12" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F12" s="13">
         <v>50</v>
@@ -2565,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>72</v>
@@ -2583,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB12" s="16">
         <v>3</v>
@@ -2601,19 +2639,19 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F13" s="13">
         <v>50</v>
@@ -2624,7 +2662,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2649,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB13" s="16">
         <v>3</v>
@@ -2667,287 +2705,287 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB25" s="16">
         <v>10</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD25" s="11">
         <v>5</v>
@@ -2955,34 +2993,34 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA26" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA26" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="AB26" s="16">
         <v>20</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD26" s="11">
         <v>5</v>
@@ -2990,34 +3028,34 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB27" s="16">
         <v>30</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD27" s="11">
         <v>5</v>
@@ -3025,131 +3063,131 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>87</v>
@@ -3158,21 +3196,21 @@
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>87</v>
@@ -3181,21 +3219,21 @@
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>87</v>
@@ -3204,453 +3242,453 @@
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F54" s="13">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AB54" s="16">
         <v>10</v>
       </c>
       <c r="AC54" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD54" s="11">
         <v>5</v>
@@ -3658,34 +3696,34 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="E55" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AB55" s="16">
         <v>20</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD55" s="11">
         <v>5</v>
@@ -3693,34 +3731,34 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA56" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA56" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="AB56" s="16">
         <v>30</v>
       </c>
       <c r="AC56" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD56" s="11">
         <v>5</v>
@@ -3769,10 +3807,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3900,10 +3938,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -4031,144 +4069,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="216">
   <si>
     <t>主键</t>
   </si>
@@ -240,103 +240,106 @@
     <t>Ability.Torrent</t>
   </si>
   <si>
+    <t>wood_cost</t>
+  </si>
+  <si>
+    <t>c_pect</t>
+  </si>
+  <si>
+    <t>b_pect</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v2</t>
+  </si>
+  <si>
+    <t>中级抽卡</t>
+  </si>
+  <si>
+    <t>card02</t>
+  </si>
+  <si>
+    <t>a_pect</t>
+  </si>
+  <si>
+    <t>unlock_round</t>
+  </si>
+  <si>
+    <t>courier_draw_card_v3</t>
+  </si>
+  <si>
+    <t>高级抽卡</t>
+  </si>
+  <si>
+    <t>card03</t>
+  </si>
+  <si>
+    <t>s_pect</t>
+  </si>
+  <si>
+    <t>courier_auto_gold</t>
+  </si>
+  <si>
+    <t>发现宝藏</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_auto_gold</t>
+  </si>
+  <si>
+    <t>auto_gold</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+  </si>
+  <si>
+    <t>gold_base</t>
+  </si>
+  <si>
+    <t>wood_base</t>
+  </si>
+  <si>
+    <t>gold_tech_per_level</t>
+  </si>
+  <si>
+    <t>wood_tech_per_level</t>
+  </si>
+  <si>
+    <t>crit_min</t>
+  </si>
+  <si>
+    <t>crit_max</t>
+  </si>
+  <si>
+    <t>courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>售卖棋子</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_recovery_chess</t>
+  </si>
+  <si>
+    <t>recovery_chess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE </t>
+  </si>
+  <si>
+    <t>gold_pect</t>
+  </si>
+  <si>
+    <t>courier_upgrade_population</t>
+  </si>
+  <si>
+    <t>提升人口</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_upgrade_chess</t>
+  </si>
+  <si>
+    <t>upgrade_chess</t>
+  </si>
+  <si>
     <t>gold_cost</t>
-  </si>
-  <si>
-    <t>c_pect</t>
-  </si>
-  <si>
-    <t>b_pect</t>
-  </si>
-  <si>
-    <t>courier_draw_card_v2</t>
-  </si>
-  <si>
-    <t>中级抽卡</t>
-  </si>
-  <si>
-    <t>card02</t>
-  </si>
-  <si>
-    <t>a_pect</t>
-  </si>
-  <si>
-    <t>courier_draw_card_v3</t>
-  </si>
-  <si>
-    <t>高级抽卡</t>
-  </si>
-  <si>
-    <t>card03</t>
-  </si>
-  <si>
-    <t>s_pect</t>
-  </si>
-  <si>
-    <t>courier_auto_gold</t>
-  </si>
-  <si>
-    <t>发现宝藏</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_auto_gold</t>
-  </si>
-  <si>
-    <t>auto_gold</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
-  </si>
-  <si>
-    <t>gold_max</t>
-  </si>
-  <si>
-    <t>wood_max</t>
-  </si>
-  <si>
-    <t>gold_inc_round</t>
-  </si>
-  <si>
-    <t>wood_inc_round</t>
-  </si>
-  <si>
-    <t>crit_min</t>
-  </si>
-  <si>
-    <t>crit_max</t>
-  </si>
-  <si>
-    <t>courier_recovery_chess</t>
-  </si>
-  <si>
-    <t>售卖棋子</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_recovery_chess</t>
-  </si>
-  <si>
-    <t>recovery_chess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE </t>
-  </si>
-  <si>
-    <t>gold_pect</t>
-  </si>
-  <si>
-    <t>courier_upgrade_population</t>
-  </si>
-  <si>
-    <t>提升人口</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_upgrade_chess</t>
-  </si>
-  <si>
-    <t>upgrade_chess</t>
-  </si>
-  <si>
-    <t>wood_cost</t>
   </si>
   <si>
     <t>population_add</t>
@@ -1664,11 +1667,11 @@
   <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ24" sqref="AJ24"/>
+      <selection pane="bottomRight" activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1996,7 +1999,7 @@
         <v>73</v>
       </c>
       <c r="AB3" s="16">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>74</v>
@@ -2013,7 +2016,7 @@
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:34">
+    <row r="4" s="3" customFormat="1" spans="1:36">
       <c r="A4" s="8" t="s">
         <v>76</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>73</v>
       </c>
       <c r="AB4" s="16">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>74</v>
@@ -2075,13 +2078,19 @@
       <c r="AH4" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:34">
+      <c r="AI4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:36">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>68</v>
@@ -2090,7 +2099,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
@@ -2118,7 +2127,7 @@
         <v>73</v>
       </c>
       <c r="AB5" s="16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>75</v>
@@ -2133,27 +2142,33 @@
         <v>60</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" s="16">
         <v>20</v>
       </c>
+      <c r="AI5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" s="8" customFormat="1" ht="28" spans="1:38">
       <c r="A6" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
@@ -2163,7 +2178,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -2188,37 +2203,37 @@
         <v>0</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB6" s="16">
         <v>100</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD6" s="16">
         <v>50</v>
       </c>
-      <c r="AE6" s="17" t="s">
-        <v>91</v>
+      <c r="AE6" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="AF6" s="17">
         <v>20</v>
       </c>
-      <c r="AG6" s="17" t="s">
-        <v>92</v>
+      <c r="AG6" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="AH6" s="17">
         <v>10</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ6" s="9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AL6" s="9">
         <v>300</v>
@@ -2226,19 +2241,19 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -2247,7 +2262,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2272,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB7" s="16">
         <v>50</v>
@@ -2286,19 +2301,19 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:34">
       <c r="A8" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -2307,7 +2322,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="K8" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2332,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AB8" s="16">
         <v>50</v>
       </c>
       <c r="AC8" s="16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AD8" s="16">
         <v>5</v>
       </c>
       <c r="AE8" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF8" s="16">
         <v>2</v>
@@ -2354,19 +2369,19 @@
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:42">
       <c r="A9" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -2375,7 +2390,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2400,49 +2415,49 @@
         <v>0</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AB9" s="16">
         <v>50</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD9" s="16">
         <v>5</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF9" s="16">
         <v>5</v>
       </c>
       <c r="AG9" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH9" s="16">
         <v>5</v>
       </c>
       <c r="AI9" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ9" s="11">
         <v>2</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL9" s="20">
         <v>10007</v>
       </c>
       <c r="AM9" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN9" s="20">
         <v>10008</v>
       </c>
       <c r="AO9" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP9" s="20">
         <v>10009</v>
@@ -2450,19 +2465,19 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" s="13">
         <v>50</v>
@@ -2473,7 +2488,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2498,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="AA10" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB10" s="16">
         <v>3</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AD10" s="16">
         <v>5</v>
@@ -2516,19 +2531,19 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" s="13">
         <v>50</v>
@@ -2539,7 +2554,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2564,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB11" s="16">
         <v>3</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AD11" s="16">
         <v>5</v>
@@ -2582,19 +2597,19 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:34">
       <c r="A12" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F12" s="13">
         <v>50</v>
@@ -2603,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>72</v>
@@ -2621,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB12" s="16">
         <v>3</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AD12" s="16">
         <v>5</v>
@@ -2639,19 +2654,19 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13" s="13">
         <v>50</v>
@@ -2662,7 +2677,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2687,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB13" s="16">
         <v>3</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AD13" s="16">
         <v>5</v>
@@ -2705,287 +2720,287 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA25" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AB25" s="16">
         <v>10</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD25" s="11">
         <v>5</v>
@@ -2993,34 +3008,34 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA26" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AB26" s="16">
         <v>20</v>
       </c>
       <c r="AC26" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD26" s="11">
         <v>5</v>
@@ -3028,34 +3043,34 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AB27" s="16">
         <v>30</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD27" s="11">
         <v>5</v>
@@ -3063,632 +3078,632 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" s="13">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB54" s="16">
         <v>10</v>
       </c>
       <c r="AC54" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD54" s="11">
         <v>5</v>
@@ -3696,34 +3711,34 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA55" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA55" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="AB55" s="16">
         <v>20</v>
       </c>
       <c r="AC55" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD55" s="11">
         <v>5</v>
@@ -3731,34 +3746,34 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB56" s="16">
         <v>30</v>
       </c>
       <c r="AC56" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD56" s="11">
         <v>5</v>
@@ -3807,10 +3822,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3938,10 +3953,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -4069,144 +4084,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="237">
   <si>
     <t>主键</t>
   </si>
@@ -406,6 +406,69 @@
   </si>
   <si>
     <t>神器挑战</t>
+  </si>
+  <si>
+    <t>faker_courier_summon_enemy</t>
+  </si>
+  <si>
+    <t>召唤佣兵</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\faker_courier_summon_enemy</t>
+  </si>
+  <si>
+    <t>visage_summon_familiars</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_IGNORE_SILENCE</t>
+  </si>
+  <si>
+    <t>summon_count_min</t>
+  </si>
+  <si>
+    <t>summon_count_max</t>
+  </si>
+  <si>
+    <t>cost_hp_pect</t>
+  </si>
+  <si>
+    <t>hp_pect_min</t>
+  </si>
+  <si>
+    <t>faker_courier_damage_shared</t>
+  </si>
+  <si>
+    <t>伤害分摊</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\faker_courier_damage_shared</t>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_IGNORE_SILENCE</t>
+  </si>
+  <si>
+    <t>faker_courier_death_prize</t>
+  </si>
+  <si>
+    <t>死亡狂暴</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\faker_courier_death_prize</t>
+  </si>
+  <si>
+    <t>death_prize</t>
+  </si>
+  <si>
+    <t>atk_pect</t>
+  </si>
+  <si>
+    <t>atkspeed_pect</t>
+  </si>
+  <si>
+    <t>incom_pect</t>
   </si>
   <si>
     <t>courier_extra_all_stat_1</t>
@@ -1664,14 +1727,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL12" sqref="AL12"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2005,13 +2068,13 @@
         <v>74</v>
       </c>
       <c r="AD3" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AE3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="AF3" s="16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -2133,7 +2196,7 @@
         <v>75</v>
       </c>
       <c r="AD5" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AE5" s="16" t="s">
         <v>79</v>
@@ -2145,7 +2208,7 @@
         <v>84</v>
       </c>
       <c r="AH5" s="16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AI5" s="3" t="s">
         <v>80</v>
@@ -2718,11 +2781,11 @@
       <c r="AG13" s="16"/>
       <c r="AH13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" ht="17" customHeight="1" spans="1:34">
       <c r="A14" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2732,73 +2795,194 @@
         <v>131</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>133</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W14" s="3">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH14" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
       </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
       </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="AA16" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>100</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH16" s="16">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>120</v>
@@ -2807,21 +2991,21 @@
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>120</v>
@@ -2830,21 +3014,21 @@
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>120</v>
@@ -2853,21 +3037,21 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>120</v>
@@ -2876,21 +3060,21 @@
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>120</v>
@@ -2899,21 +3083,21 @@
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>120</v>
@@ -2922,21 +3106,21 @@
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>120</v>
@@ -2945,21 +3129,21 @@
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>120</v>
@@ -2968,21 +3152,21 @@
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>120</v>
@@ -2991,33 +3175,21 @@
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA25" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB25" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>120</v>
@@ -3026,33 +3198,21 @@
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA26" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB26" s="16">
-        <v>20</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD26" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="8" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>120</v>
@@ -3061,33 +3221,21 @@
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>30</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD27" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>120</v>
@@ -3096,21 +3244,33 @@
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>153</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>120</v>
@@ -3119,21 +3279,33 @@
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>153</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>20</v>
+      </c>
+      <c r="AC29" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD29" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="8" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>120</v>
@@ -3142,21 +3314,33 @@
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>30</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>120</v>
@@ -3165,21 +3349,21 @@
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>120</v>
@@ -3188,159 +3372,159 @@
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>88</v>
+        <v>152</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>88</v>
+        <v>152</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>88</v>
+        <v>152</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>120</v>
@@ -3349,21 +3533,21 @@
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>120</v>
@@ -3372,21 +3556,21 @@
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>120</v>
@@ -3395,21 +3579,21 @@
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>120</v>
@@ -3418,21 +3602,21 @@
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>120</v>
@@ -3441,21 +3625,21 @@
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>120</v>
@@ -3464,21 +3648,21 @@
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>120</v>
@@ -3487,21 +3671,21 @@
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>120</v>
@@ -3510,21 +3694,21 @@
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>120</v>
@@ -3533,21 +3717,21 @@
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>120</v>
@@ -3556,21 +3740,21 @@
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>120</v>
@@ -3579,21 +3763,21 @@
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>120</v>
@@ -3602,21 +3786,21 @@
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>120</v>
@@ -3625,21 +3809,21 @@
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>120</v>
@@ -3648,21 +3832,21 @@
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>120</v>
@@ -3671,21 +3855,21 @@
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>120</v>
@@ -3694,33 +3878,21 @@
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA54" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB54" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC54" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD54" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>120</v>
@@ -3729,33 +3901,21 @@
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA55" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB55" s="16">
-        <v>20</v>
-      </c>
-      <c r="AC55" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD55" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>120</v>
@@ -3764,23 +3924,116 @@
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA56" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB56" s="16">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA57" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB57" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC57" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD57" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA58" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB58" s="16">
+        <v>20</v>
+      </c>
+      <c r="AC58" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD58" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA59" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB59" s="16">
         <v>30</v>
       </c>
-      <c r="AC56" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD56" s="11">
+      <c r="AC59" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD59" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="15"/>
+    <row r="60" spans="1:1">
+      <c r="A60" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3822,10 +4075,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3953,10 +4206,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>41</v>
@@ -4084,144 +4337,144 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="5" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="251">
   <si>
     <t>主键</t>
   </si>
@@ -144,6 +144,18 @@
     <t>特殊属性8_v</t>
   </si>
   <si>
+    <t>特殊属性9_k</t>
+  </si>
+  <si>
+    <t>特殊属性9_v</t>
+  </si>
+  <si>
+    <t>特殊属性10_k</t>
+  </si>
+  <si>
+    <t>特殊属性10_v</t>
+  </si>
+  <si>
     <t>UnitName</t>
   </si>
   <si>
@@ -336,7 +348,7 @@
     <t>npc\abilities\courier\courier_upgrade_chess</t>
   </si>
   <si>
-    <t>upgrade_chess</t>
+    <t>upgrade_chess_population</t>
   </si>
   <si>
     <t>gold_cost</t>
@@ -345,12 +357,18 @@
     <t>population_add</t>
   </si>
   <si>
+    <t>_jindu_max</t>
+  </si>
+  <si>
     <t>courier_upgrade_tech</t>
   </si>
   <si>
     <t>提升科技</t>
   </si>
   <si>
+    <t>upgrade_chess_tech</t>
+  </si>
+  <si>
     <t>good_add_interval</t>
   </si>
   <si>
@@ -381,105 +399,117 @@
     <t>npc\abilities\courier\courier_challenge_enemy</t>
   </si>
   <si>
+    <t>challenge_gold</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
+  </si>
+  <si>
+    <t>draw_count</t>
+  </si>
+  <si>
+    <t>courier_challenge_wood</t>
+  </si>
+  <si>
+    <t>木材挑战</t>
+  </si>
+  <si>
+    <t>challenge_wood</t>
+  </si>
+  <si>
+    <t>courier_challenge_equip</t>
+  </si>
+  <si>
+    <t>装备挑战</t>
+  </si>
+  <si>
+    <t>challenge_equip</t>
+  </si>
+  <si>
+    <t>courier_challenge_artifact</t>
+  </si>
+  <si>
+    <t>神器挑战</t>
+  </si>
+  <si>
+    <t>challenge_artifact</t>
+  </si>
+  <si>
+    <t>faker_courier_summon_enemy</t>
+  </si>
+  <si>
+    <t>召唤佣兵</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\faker_courier_summon_enemy</t>
+  </si>
+  <si>
+    <t>visage_summon_familiars</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_IGNORE_SILENCE</t>
+  </si>
+  <si>
+    <t>summon_count_min</t>
+  </si>
+  <si>
+    <t>summon_count_max</t>
+  </si>
+  <si>
+    <t>cost_hp_pect</t>
+  </si>
+  <si>
+    <t>hp_pect_min</t>
+  </si>
+  <si>
+    <t>faker_courier_damage_shared</t>
+  </si>
+  <si>
+    <t>伤害分摊</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\faker_courier_damage_shared</t>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_IGNORE_SILENCE</t>
+  </si>
+  <si>
+    <t>faker_courier_death_prize</t>
+  </si>
+  <si>
+    <t>死亡狂暴</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\faker_courier_death_prize</t>
+  </si>
+  <si>
+    <t>death_prize</t>
+  </si>
+  <si>
+    <t>atk_pect</t>
+  </si>
+  <si>
+    <t>atkspeed_pect</t>
+  </si>
+  <si>
+    <t>incom_pect</t>
+  </si>
+  <si>
+    <t>courier_extra_all_stat_1</t>
+  </si>
+  <si>
+    <t>信使额外技能</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_extra_gold_sec</t>
+  </si>
+  <si>
     <t>kunkka_torrent</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
-  </si>
-  <si>
-    <t>draw_count</t>
-  </si>
-  <si>
-    <t>courier_challenge_wood</t>
-  </si>
-  <si>
-    <t>木材挑战</t>
-  </si>
-  <si>
-    <t>courier_challenge_equip</t>
-  </si>
-  <si>
-    <t>装备挑战</t>
-  </si>
-  <si>
-    <t>courier_challenge_artifact</t>
-  </si>
-  <si>
-    <t>神器挑战</t>
-  </si>
-  <si>
-    <t>faker_courier_summon_enemy</t>
-  </si>
-  <si>
-    <t>召唤佣兵</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\faker_courier_summon_enemy</t>
-  </si>
-  <si>
-    <t>visage_summon_familiars</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET|DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_IGNORE_SILENCE</t>
-  </si>
-  <si>
-    <t>summon_count_min</t>
-  </si>
-  <si>
-    <t>summon_count_max</t>
-  </si>
-  <si>
-    <t>cost_hp_pect</t>
-  </si>
-  <si>
-    <t>hp_pect_min</t>
-  </si>
-  <si>
-    <t>faker_courier_damage_shared</t>
-  </si>
-  <si>
-    <t>伤害分摊</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\faker_courier_damage_shared</t>
-  </si>
-  <si>
-    <t>visage_summon_familiars_stone_form</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE|DOTA_ABILITY_BEHAVIOR_IGNORE_SILENCE</t>
-  </si>
-  <si>
-    <t>faker_courier_death_prize</t>
-  </si>
-  <si>
-    <t>死亡狂暴</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\faker_courier_death_prize</t>
-  </si>
-  <si>
-    <t>death_prize</t>
-  </si>
-  <si>
-    <t>atk_pect</t>
-  </si>
-  <si>
-    <t>atkspeed_pect</t>
-  </si>
-  <si>
-    <t>incom_pect</t>
-  </si>
-  <si>
-    <t>courier_extra_all_stat_1</t>
-  </si>
-  <si>
-    <t>信使额外技能</t>
-  </si>
-  <si>
-    <t>npc\abilities\courier\courier_extra_gold_sec</t>
-  </si>
-  <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
   </si>
   <si>
@@ -724,6 +754,18 @@
   </si>
   <si>
     <t>08&gt;V&amp;</t>
+  </si>
+  <si>
+    <t>09&gt;K&amp;</t>
+  </si>
+  <si>
+    <t>09&gt;V&amp;</t>
+  </si>
+  <si>
+    <t>10&gt;K&amp;</t>
+  </si>
+  <si>
+    <t>10&gt;V&amp;</t>
   </si>
   <si>
     <t>parent</t>
@@ -1350,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1400,6 +1442,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1727,14 +1772,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP60"/>
+  <dimension ref="A1:AT60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1768,7 +1813,7 @@
     <col min="35" max="42" width="9.75" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:42">
+    <row r="1" s="3" customFormat="1" ht="31.5" customHeight="1" spans="1:46">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1893,158 +1938,182 @@
       <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:42">
+      <c r="AQ1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="36.75" customHeight="1" spans="1:46">
       <c r="A2" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:34">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
       </c>
       <c r="G3" s="4"/>
       <c r="K3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
@@ -2059,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="AA3" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB3" s="16">
         <v>5</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD3" s="3">
         <v>80</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AF3" s="16">
         <v>20</v>
@@ -2081,29 +2150,29 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:36">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F4" s="13">
         <v>1</v>
       </c>
       <c r="G4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
@@ -2118,31 +2187,31 @@
         <v>0</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB4" s="16">
         <v>20</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD4" s="3">
         <v>20</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AF4" s="16">
         <v>60</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="16">
         <v>20</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ4" s="3">
         <v>5</v>
@@ -2150,29 +2219,29 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:36">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="4"/>
       <c r="K5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S5" s="3">
         <v>1</v>
@@ -2187,31 +2256,31 @@
         <v>0</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AB5" s="16">
         <v>50</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AD5" s="3">
         <v>30</v>
       </c>
       <c r="AE5" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AF5" s="16">
         <v>60</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AH5" s="16">
         <v>10</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ5" s="3">
         <v>10</v>
@@ -2219,19 +2288,19 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="28" spans="1:38">
       <c r="A6" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
@@ -2241,7 +2310,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -2249,7 +2318,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="R6" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S6" s="12">
         <v>1</v>
@@ -2266,37 +2335,37 @@
         <v>0</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="16">
         <v>100</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AD6" s="16">
         <v>50</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="17">
         <v>20</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AH6" s="17">
         <v>10</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AJ6" s="9">
         <v>100</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AL6" s="9">
         <v>300</v>
@@ -2304,19 +2373,19 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F7" s="13">
         <v>1</v>
@@ -2325,7 +2394,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2333,7 +2402,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="8"/>
       <c r="R7" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S7" s="3">
         <v>1</v>
@@ -2350,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AB7" s="16">
         <v>50</v>
@@ -2362,21 +2431,21 @@
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:34">
+    <row r="8" ht="18" customHeight="1" spans="1:36">
       <c r="A8" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -2385,7 +2454,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="K8" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2393,7 +2462,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="8"/>
       <c r="R8" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
@@ -2410,41 +2479,47 @@
         <v>0</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AB8" s="16">
         <v>50</v>
       </c>
       <c r="AC8" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD8" s="16">
         <v>5</v>
       </c>
       <c r="AE8" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF8" s="16">
         <v>2</v>
       </c>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-    </row>
-    <row r="9" ht="19" customHeight="1" spans="1:42">
+      <c r="AG8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+    </row>
+    <row r="9" ht="19" customHeight="1" spans="1:46">
       <c r="A9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -2453,7 +2528,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2461,7 +2536,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="8"/>
       <c r="R9" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
@@ -2478,69 +2553,77 @@
         <v>0</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="16">
         <v>50</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AD9" s="16">
         <v>5</v>
       </c>
       <c r="AE9" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AF9" s="16">
         <v>5</v>
       </c>
-      <c r="AG9" s="18" t="s">
-        <v>112</v>
+      <c r="AG9" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="AH9" s="16">
         <v>5</v>
       </c>
       <c r="AI9" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AJ9" s="11">
         <v>2</v>
       </c>
-      <c r="AK9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL9" s="20">
+      <c r="AK9" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL9" s="21">
         <v>10007</v>
       </c>
-      <c r="AM9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN9" s="20">
+      <c r="AM9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN9" s="21">
         <v>10008</v>
       </c>
-      <c r="AO9" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP9" s="20">
+      <c r="AO9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP9" s="21">
         <v>10009</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AQ9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR9" s="11">
+        <v>20</v>
+      </c>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F10" s="13">
         <v>50</v>
@@ -2551,7 +2634,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2559,7 +2642,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="8"/>
       <c r="R10" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
@@ -2576,37 +2659,39 @@
         <v>0</v>
       </c>
       <c r="AA10" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AB10" s="16">
         <v>3</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD10" s="16">
         <v>5</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="AE10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F11" s="13">
         <v>50</v>
@@ -2617,7 +2702,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2625,7 +2710,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="R11" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -2642,37 +2727,39 @@
         <v>0</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AB11" s="16">
         <v>3</v>
       </c>
       <c r="AC11" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="16">
         <v>5</v>
       </c>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:34">
+      <c r="AE11" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:32">
       <c r="A12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F12" s="13">
         <v>50</v>
@@ -2681,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S12" s="3">
         <v>1</v>
@@ -2699,37 +2786,39 @@
         <v>0</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AB12" s="16">
         <v>3</v>
       </c>
       <c r="AC12" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD12" s="16">
         <v>5</v>
       </c>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AE12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F13" s="13">
         <v>50</v>
@@ -2740,7 +2829,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2748,7 +2837,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S13" s="3">
         <v>1</v>
@@ -2765,37 +2854,39 @@
         <v>0</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AB13" s="16">
         <v>3</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD13" s="16">
         <v>5</v>
       </c>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
+      <c r="AE13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:34">
       <c r="A14" s="8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
@@ -2804,7 +2895,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2812,7 +2903,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="R14" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S14" s="3">
         <v>1</v>
@@ -2829,25 +2920,25 @@
         <v>0</v>
       </c>
       <c r="AA14" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AB14" s="16">
         <v>2</v>
       </c>
       <c r="AC14" s="16" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AD14" s="16">
         <v>4</v>
       </c>
       <c r="AE14" s="16" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AF14" s="16">
         <v>5</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AH14" s="16">
         <v>40</v>
@@ -2855,19 +2946,19 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
@@ -2876,7 +2967,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2884,7 +2975,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="R15" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S15" s="3">
         <v>1</v>
@@ -2911,19 +3002,19 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="12" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
@@ -2932,7 +3023,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2947,25 +3038,25 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="AA16" s="16" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AB16" s="16">
         <v>40</v>
       </c>
       <c r="AC16" s="16" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AD16" s="16">
         <v>100</v>
       </c>
       <c r="AE16" s="16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AF16" s="16">
         <v>100</v>
       </c>
       <c r="AG16" s="16" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AH16" s="16">
         <v>100</v>
@@ -2973,287 +3064,287 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AA28" s="16" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AB28" s="16">
         <v>10</v>
       </c>
       <c r="AC28" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AD28" s="11">
         <v>5</v>
@@ -3261,34 +3352,34 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AB29" s="16">
         <v>20</v>
       </c>
       <c r="AC29" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AD29" s="11">
         <v>5</v>
@@ -3296,34 +3387,34 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AB30" s="16">
         <v>30</v>
       </c>
       <c r="AC30" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AD30" s="11">
         <v>5</v>
@@ -3331,632 +3422,632 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F54" s="13">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F57" s="13">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AA57" s="16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AB57" s="16">
         <v>10</v>
       </c>
       <c r="AC57" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AD57" s="11">
         <v>5</v>
@@ -3964,34 +4055,34 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F58" s="13">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AA58" s="16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AB58" s="16">
         <v>20</v>
       </c>
       <c r="AC58" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AD58" s="11">
         <v>5</v>
@@ -3999,34 +4090,34 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="8" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F59" s="13">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AB59" s="16">
         <v>30</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AD59" s="11">
         <v>5</v>
@@ -4045,10 +4136,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="AQ14" sqref="AQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4073,12 +4164,12 @@
     <col min="28" max="43" width="12.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:43">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:47">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -4203,398 +4294,446 @@
       <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:43">
+      <c r="AR1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:47">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
-      <c r="A4" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -1779,7 +1779,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
+      <selection pane="bottomRight" activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2664,11 +2664,11 @@
       <c r="AB10" s="16">
         <v>3</v>
       </c>
-      <c r="AC10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>5</v>
+      <c r="AC10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>3</v>
       </c>
       <c r="AE10" s="11" t="s">
         <v>112</v>
@@ -2732,11 +2732,11 @@
       <c r="AB11" s="16">
         <v>3</v>
       </c>
-      <c r="AC11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>5</v>
+      <c r="AC11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>6</v>
       </c>
       <c r="AE11" s="11" t="s">
         <v>112</v>
@@ -2791,11 +2791,11 @@
       <c r="AB12" s="16">
         <v>3</v>
       </c>
-      <c r="AC12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>5</v>
+      <c r="AC12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>9</v>
       </c>
       <c r="AE12" s="11" t="s">
         <v>112</v>
@@ -2859,11 +2859,11 @@
       <c r="AB13" s="16">
         <v>3</v>
       </c>
-      <c r="AC13" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD13" s="16">
-        <v>5</v>
+      <c r="AC13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>12</v>
       </c>
       <c r="AE13" s="11" t="s">
         <v>112</v>
@@ -3047,7 +3047,7 @@
         <v>156</v>
       </c>
       <c r="AD16" s="16">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AE16" s="16" t="s">
         <v>157</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="261">
   <si>
     <t>主键</t>
   </si>
@@ -336,9 +336,24 @@
     <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE </t>
   </si>
   <si>
+    <t>DOTA_UNIT_TARGET_TEAM_FRIENDLY</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
+  </si>
+  <si>
     <t>gold_pect</t>
   </si>
   <si>
+    <t>courier_hut_change</t>
+  </si>
+  <si>
+    <t>驻扎转换</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_hut_change</t>
+  </si>
+  <si>
     <t>courier_upgrade_population</t>
   </si>
   <si>
@@ -378,9 +393,6 @@
     <t>soul_add_interval</t>
   </si>
   <si>
-    <t>stat_all_add</t>
-  </si>
-  <si>
     <t>poolgroupconfig_1</t>
   </si>
   <si>
@@ -390,6 +402,9 @@
     <t>poolgroupconfig_3</t>
   </si>
   <si>
+    <t>eggcount</t>
+  </si>
+  <si>
     <t>courier_challenge_gold</t>
   </si>
   <si>
@@ -496,6 +511,21 @@
   </si>
   <si>
     <t>incom_pect</t>
+  </si>
+  <si>
+    <t>courier_egg_honor</t>
+  </si>
+  <si>
+    <t>致命的蛋蛋</t>
+  </si>
+  <si>
+    <t>npc\abilities\courier\courier_egg_honor</t>
+  </si>
+  <si>
+    <t>egg_pect</t>
+  </si>
+  <si>
+    <t>egg_count</t>
   </si>
   <si>
     <t>courier_extra_all_stat_1</t>
@@ -1392,7 +1422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1434,9 +1464,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1449,7 +1483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1772,14 +1805,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT60"/>
+  <dimension ref="A1:AT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE21" sqref="AE21"/>
+      <selection pane="bottomRight" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1804,7 +1837,7 @@
     <col min="24" max="26" width="11.9166666666667" style="11" customWidth="1"/>
     <col min="27" max="27" width="17.6666666666667" style="11" customWidth="1"/>
     <col min="28" max="28" width="13.6666666666667" style="11" customWidth="1"/>
-    <col min="29" max="29" width="15.5833333333333" style="11" customWidth="1"/>
+    <col min="29" max="29" width="17.75" style="11" customWidth="1"/>
     <col min="30" max="30" width="12.3166666666667" style="11" customWidth="1"/>
     <col min="31" max="31" width="17.8166666666667" style="11" customWidth="1"/>
     <col min="32" max="32" width="11.8333333333333" style="11" customWidth="1"/>
@@ -2127,10 +2160,10 @@
       <c r="X3" s="3">
         <v>0</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="18">
         <v>5</v>
       </c>
       <c r="AC3" s="3" t="s">
@@ -2139,14 +2172,14 @@
       <c r="AD3" s="3">
         <v>80</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="18">
         <v>20</v>
       </c>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:36">
       <c r="A4" s="8" t="s">
@@ -2186,10 +2219,10 @@
       <c r="X4" s="3">
         <v>0</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="18">
         <v>20</v>
       </c>
       <c r="AC4" s="3" t="s">
@@ -2198,23 +2231,23 @@
       <c r="AD4" s="3">
         <v>20</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AE4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="18">
         <v>60</v>
       </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AG4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="18">
         <v>20</v>
       </c>
       <c r="AI4" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AJ4" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:36">
@@ -2255,10 +2288,10 @@
       <c r="X5" s="3">
         <v>0</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AB5" s="18">
         <v>50</v>
       </c>
       <c r="AC5" s="3" t="s">
@@ -2267,16 +2300,16 @@
       <c r="AD5" s="3">
         <v>30</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AE5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" s="16">
+      <c r="AF5" s="18">
         <v>60</v>
       </c>
-      <c r="AG5" s="16" t="s">
+      <c r="AG5" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AH5" s="16">
+      <c r="AH5" s="18">
         <v>10</v>
       </c>
       <c r="AI5" s="3" t="s">
@@ -2334,44 +2367,44 @@
       <c r="X6" s="12">
         <v>0</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AA6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="18">
         <v>100</v>
       </c>
-      <c r="AC6" s="16" t="s">
+      <c r="AC6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AD6" s="18">
         <v>50</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AE6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AF6" s="19">
         <v>20</v>
       </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AG6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AH6" s="17">
+      <c r="AH6" s="19">
         <v>10</v>
       </c>
-      <c r="AI6" s="16" t="s">
+      <c r="AI6" s="18" t="s">
         <v>98</v>
       </c>
       <c r="AJ6" s="9">
         <v>100</v>
       </c>
-      <c r="AK6" s="16" t="s">
+      <c r="AK6" s="18" t="s">
         <v>99</v>
       </c>
       <c r="AL6" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" ht="15.5" spans="1:34">
       <c r="A7" s="8" t="s">
         <v>100</v>
       </c>
@@ -2397,8 +2430,12 @@
         <v>104</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="8"/>
       <c r="R7" s="3" t="s">
@@ -2418,34 +2455,34 @@
       <c r="X7" s="3">
         <v>0</v>
       </c>
-      <c r="AA7" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB7" s="16">
+      <c r="AA7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB7" s="18">
         <v>50</v>
       </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:36">
-      <c r="A8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>107</v>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+    </row>
+    <row r="8" ht="15.5" spans="1:34">
+      <c r="A8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -2453,18 +2490,22 @@
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="12" t="s">
-        <v>93</v>
+      <c r="K8" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="8"/>
       <c r="R8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="12">
         <v>1</v>
       </c>
       <c r="T8" s="3"/>
@@ -2478,48 +2519,30 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:36">
+      <c r="A9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AF8" s="16">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AH8" s="11">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-    </row>
-    <row r="9" ht="19" customHeight="1" spans="1:46">
-      <c r="A9" s="8" t="s">
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -2552,89 +2575,57 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="AA9" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB9" s="16">
+      <c r="AA9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB9" s="18">
         <v>50</v>
       </c>
-      <c r="AC9" s="16" t="s">
+      <c r="AC9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AD9" s="16">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AF9" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AF9" s="16">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:46">
+      <c r="A10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AH9" s="16">
-        <v>5</v>
-      </c>
-      <c r="AI9" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AJ9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AL9" s="21">
-        <v>10007</v>
-      </c>
-      <c r="AM9" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN9" s="21">
-        <v>10008</v>
-      </c>
-      <c r="AO9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP9" s="21">
-        <v>10009</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR9" s="11">
-        <v>20</v>
-      </c>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="F10" s="13">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>127</v>
+      <c r="K10" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2653,42 +2644,80 @@
         <v>1500</v>
       </c>
       <c r="W10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF10" s="11">
+      <c r="AA10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" s="22">
+        <v>10007</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL10" s="22">
+        <v>10008</v>
+      </c>
+      <c r="AM10" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN10" s="22">
+        <v>10009</v>
+      </c>
+      <c r="AO10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP10" s="11">
         <v>20</v>
       </c>
+      <c r="AQ10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>131</v>
@@ -2702,13 +2731,13 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="8"/>
       <c r="R11" s="3" t="s">
         <v>76</v>
       </c>
@@ -2721,45 +2750,45 @@
         <v>1500</v>
       </c>
       <c r="W11" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X11" s="3">
         <v>0</v>
       </c>
-      <c r="AA11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB11" s="16">
+      <c r="AA11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB11" s="18">
         <v>3</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AD11" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AF11" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F12" s="13">
         <v>50</v>
@@ -2767,58 +2796,67 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
       <c r="R12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S12" s="3">
         <v>1</v>
       </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="3">
         <v>1500</v>
       </c>
       <c r="W12" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB12" s="16">
+      <c r="AA12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" s="18">
         <v>3</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AD12" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AF12" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:32">
       <c r="A13" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="13">
         <v>50</v>
@@ -2826,76 +2864,69 @@
       <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+        <v>132</v>
+      </c>
       <c r="R13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S13" s="3">
         <v>1</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
       <c r="V13" s="3">
         <v>1500</v>
       </c>
       <c r="W13" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X13" s="3">
         <v>0</v>
       </c>
-      <c r="AA13" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB13" s="16">
+      <c r="AA13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB13" s="18">
         <v>3</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>84</v>
       </c>
       <c r="AD13" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AF13" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:34">
+    <row r="14" spans="1:32">
       <c r="A14" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2914,51 +2945,45 @@
         <v>1500</v>
       </c>
       <c r="W14" s="3">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AA14" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:34">
+      <c r="A15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AB14" s="16">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="16" t="s">
+      <c r="B15" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD14" s="16">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="16" t="s">
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AF14" s="16">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="16" t="s">
+      <c r="E15" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="AH14" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
@@ -2967,7 +2992,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2986,22 +3011,38 @@
         <v>1500</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
+      <c r="AA15" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD15" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF15" s="18">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH15" s="18">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3023,576 +3064,640 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="AA16" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB16" s="16">
+      <c r="V16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="AA17" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB17" s="18">
         <v>40</v>
       </c>
-      <c r="AC16" s="16" t="s">
+      <c r="AC17" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD17" s="18">
+        <v>20</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF17" s="18">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH17" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AD16" s="16">
-        <v>20</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF16" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG16" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="AA18" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA28" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB28" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA29" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB29" s="16">
-        <v>20</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD29" s="11">
-        <v>5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB30" s="16">
-        <v>30</v>
+        <v>173</v>
+      </c>
+      <c r="AA30" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB30" s="18">
+        <v>10</v>
       </c>
       <c r="AC30" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AD30" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:30">
       <c r="A31" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>173</v>
+      </c>
+      <c r="AA31" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB31" s="18">
+        <v>20</v>
+      </c>
+      <c r="AC31" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="8" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
+      </c>
+      <c r="AA32" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB32" s="18">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>92</v>
+        <v>171</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>92</v>
+        <v>171</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>92</v>
@@ -3601,530 +3706,576 @@
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F54" s="13">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F57" s="13">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA57" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB57" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC57" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD57" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F58" s="13">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA58" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB58" s="16">
-        <v>20</v>
-      </c>
-      <c r="AC58" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD58" s="11">
-        <v>5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F59" s="13">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA59" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB59" s="16">
-        <v>30</v>
+        <v>173</v>
+      </c>
+      <c r="AA59" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB59" s="18">
+        <v>10</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AD59" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="15"/>
+    <row r="60" spans="1:30">
+      <c r="A60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA60" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB60" s="18">
+        <v>20</v>
+      </c>
+      <c r="AC60" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD60" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
+      <c r="A61" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA61" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB61" s="18">
+        <v>30</v>
+      </c>
+      <c r="AC61" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD61" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4166,10 +4317,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:47">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -4309,10 +4460,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:47">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
@@ -4452,156 +4603,156 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="263">
   <si>
     <t>主键</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>npc\abilities\courier\courier_hut_change</t>
+  </si>
+  <si>
+    <t>atk_speed</t>
+  </si>
+  <si>
+    <t>atk_speed_debuff</t>
   </si>
   <si>
     <t>courier_upgrade_population</t>
@@ -1422,7 +1428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1477,6 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1812,7 +1819,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC25" sqref="AC25"/>
+      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2519,10 +2526,18 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
+      <c r="AA8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>-50</v>
+      </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
@@ -2530,19 +2545,19 @@
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
       <c r="A9" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -2576,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AB9" s="18">
         <v>50</v>
@@ -2588,35 +2603,35 @@
         <v>5</v>
       </c>
       <c r="AE9" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF9" s="18">
         <v>2</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH9" s="11">
         <v>10</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:46">
       <c r="A10" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -2650,55 +2665,55 @@
         <v>0</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AB10" s="18">
         <v>50</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AD10" s="18">
         <v>5</v>
       </c>
       <c r="AE10" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF10" s="18">
         <v>5</v>
       </c>
-      <c r="AG10" s="21" t="s">
-        <v>123</v>
+      <c r="AG10" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="AH10" s="18">
         <v>5</v>
       </c>
       <c r="AI10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ10" s="22">
+        <v>126</v>
+      </c>
+      <c r="AJ10" s="23">
         <v>10007</v>
       </c>
       <c r="AK10" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL10" s="22">
+        <v>127</v>
+      </c>
+      <c r="AL10" s="23">
         <v>10008</v>
       </c>
       <c r="AM10" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN10" s="22">
+        <v>128</v>
+      </c>
+      <c r="AN10" s="23">
         <v>10009</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP10" s="11">
         <v>20</v>
       </c>
       <c r="AQ10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AR10">
         <v>1</v>
@@ -2708,19 +2723,19 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="13">
         <v>50</v>
@@ -2731,7 +2746,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2756,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB11" s="18">
         <v>3</v>
@@ -2768,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF11" s="11">
         <v>15</v>
@@ -2776,19 +2791,19 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F12" s="13">
         <v>50</v>
@@ -2799,7 +2814,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2824,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB12" s="18">
         <v>3</v>
@@ -2836,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF12" s="11">
         <v>15</v>
@@ -2844,19 +2859,19 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:32">
       <c r="A13" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="13">
         <v>50</v>
@@ -2865,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>76</v>
@@ -2883,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB13" s="18">
         <v>3</v>
@@ -2895,7 +2910,7 @@
         <v>9</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF13" s="11">
         <v>10</v>
@@ -2903,19 +2918,19 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F14" s="13">
         <v>50</v>
@@ -2926,7 +2941,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2951,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB14" s="18">
         <v>3</v>
@@ -2963,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF14" s="11">
         <v>5</v>
@@ -2971,19 +2986,19 @@
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:34">
       <c r="A15" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
@@ -2992,7 +3007,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3017,25 +3032,25 @@
         <v>0</v>
       </c>
       <c r="AA15" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AB15" s="18">
         <v>2</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AD15" s="18">
         <v>5</v>
       </c>
       <c r="AE15" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF15" s="18">
         <v>5</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AH15" s="18">
         <v>40</v>
@@ -3043,19 +3058,19 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
@@ -3064,7 +3079,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -3099,19 +3114,19 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -3120,7 +3135,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -3135,25 +3150,25 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="AA17" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AB17" s="18">
         <v>40</v>
       </c>
       <c r="AC17" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD17" s="18">
         <v>20</v>
       </c>
       <c r="AE17" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF17" s="18">
         <v>100</v>
       </c>
       <c r="AG17" s="18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AH17" s="18">
         <v>100</v>
@@ -3161,19 +3176,19 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
@@ -3182,7 +3197,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3197,13 +3212,13 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="AA18" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AB18" s="18">
         <v>5</v>
       </c>
       <c r="AC18" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD18" s="18">
         <v>5</v>
@@ -3215,287 +3230,287 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA30" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB30" s="18">
         <v>10</v>
       </c>
       <c r="AC30" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD30" s="11">
         <v>5</v>
@@ -3503,34 +3518,34 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA31" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="13">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA31" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="AB31" s="18">
         <v>20</v>
       </c>
       <c r="AC31" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD31" s="11">
         <v>5</v>
@@ -3538,34 +3553,34 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA32" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB32" s="18">
         <v>30</v>
       </c>
       <c r="AC32" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD32" s="11">
         <v>5</v>
@@ -3573,131 +3588,131 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>92</v>
@@ -3706,21 +3721,21 @@
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>92</v>
@@ -3729,21 +3744,21 @@
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>92</v>
@@ -3752,453 +3767,453 @@
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F54" s="13">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F57" s="13">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F58" s="13">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F59" s="13">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA59" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AB59" s="18">
         <v>10</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD59" s="11">
         <v>5</v>
@@ -4206,34 +4221,34 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="E60" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA60" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="13">
-        <v>1</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA60" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="AB60" s="18">
         <v>20</v>
       </c>
       <c r="AC60" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD60" s="11">
         <v>5</v>
@@ -4241,34 +4256,34 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F61" s="13">
         <v>1</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AA61" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AB61" s="18">
         <v>30</v>
       </c>
       <c r="AC61" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD61" s="11">
         <v>5</v>
@@ -4317,10 +4332,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:47">
       <c r="A1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -4460,10 +4475,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:47">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
@@ -4603,156 +4618,156 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>

--- a/code/excels/abilities/courier_abilities.xlsx
+++ b/code/excels/abilities/courier_abilities.xlsx
@@ -1428,7 +1428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1483,7 +1483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,11 +1814,11 @@
   <dimension ref="A1:AT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2532,7 +2531,7 @@
       <c r="AB8" s="18">
         <v>50</v>
       </c>
-      <c r="AC8" s="20" t="s">
+      <c r="AC8" s="17" t="s">
         <v>112</v>
       </c>
       <c r="AD8" s="18">
@@ -2614,8 +2613,8 @@
       <c r="AH9" s="11">
         <v>10</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:46">
       <c r="A10" s="8" t="s">
@@ -2682,7 +2681,7 @@
       <c r="AF10" s="18">
         <v>5</v>
       </c>
-      <c r="AG10" s="22" t="s">
+      <c r="AG10" s="21" t="s">
         <v>125</v>
       </c>
       <c r="AH10" s="18">
@@ -2691,19 +2690,19 @@
       <c r="AI10" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="AJ10" s="23">
+      <c r="AJ10" s="22">
         <v>10007</v>
       </c>
       <c r="AK10" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="AL10" s="23">
+      <c r="AL10" s="22">
         <v>10008</v>
       </c>
       <c r="AM10" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="AN10" s="23">
+      <c r="AN10" s="22">
         <v>10009</v>
       </c>
       <c r="AO10" s="11" t="s">
